--- a/results/new_pi_matrix.xlsx
+++ b/results/new_pi_matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Education\risc_v\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF49768-8A15-4DBF-9570-5CAF7AC57981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97098F94-CBC7-4293-B203-F265AED1C4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1C5123AA-3652-4661-A586-32097E39DAF3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C5123AA-3652-4661-A586-32097E39DAF3}"/>
   </bookViews>
   <sheets>
     <sheet name="pi" sheetId="1" r:id="rId1"/>
@@ -747,28 +747,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6.1896929218592884</c:v>
+                  <c:v>2676000.4147557071</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2741041141960912</c:v>
+                  <c:v>347546.23771274334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2856000728541135</c:v>
+                  <c:v>35158.06500137777</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3284384437496595</c:v>
+                  <c:v>3558.3963949843683</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6139396627922853</c:v>
+                  <c:v>378.0332516510054</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5568705928092239</c:v>
+                  <c:v>86.177973416781896</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.085090333028173</c:v>
+                  <c:v>49.193214237918355</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.970655371889009</c:v>
+                  <c:v>43.728271545286468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -846,28 +846,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.0001656810075503</c:v>
+                  <c:v>2698.3985165205663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0135247779617154</c:v>
+                  <c:v>228.45607046678631</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2111724837112559</c:v>
+                  <c:v>18.555620748455233</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.263431842224879</c:v>
+                  <c:v>13.216984363010521</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.334490163627169</c:v>
+                  <c:v>13.402857762988152</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.455451393022141</c:v>
+                  <c:v>14.290066016963969</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.753209035579349</c:v>
+                  <c:v>26.814777216169546</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.800126031748288</c:v>
+                  <c:v>26.680664300141995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3417,28 +3417,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>27.584335385296985</c:v>
+                  <c:v>6.3803639396727159E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.167655856384414</c:v>
+                  <c:v>5.8070898215102521E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.752267284014025</c:v>
+                  <c:v>6.7493945978399951E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.502325128112012</c:v>
+                  <c:v>5.780383662200124E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.077653870956667</c:v>
+                  <c:v>0.54372393609810599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.104527141961846</c:v>
+                  <c:v>3.8929834366719591</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.92835744506865</c:v>
+                  <c:v>7.1024857820926464</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.7260153582315869</c:v>
+                  <c:v>7.97617971916572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3693,13 +3693,6 @@
               <a:rPr lang="en-US" baseline="0"/>
               <a:t> Matebook D15 (double)</a:t>
             </a:r>
-            <a:br>
-              <a:rPr lang="ru-RU" baseline="0"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t>логарифмическая шкала</a:t>
-            </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
@@ -4003,28 +3996,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.12688935164410001</c:v>
+                  <c:v>2.9349999999999997E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1251899048748</c:v>
+                  <c:v>2.26E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1250411311563</c:v>
+                  <c:v>2.2354999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1252233435141</c:v>
+                  <c:v>2.2270375E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12722766850010001</c:v>
+                  <c:v>2.2259315000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14086739300000001</c:v>
+                  <c:v>1.5621757999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25487476662500003</c:v>
+                  <c:v>0.12996826175000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4227878419375</c:v>
+                  <c:v>1.3005261925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4102,28 +4095,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.0002655250000001E-2</c:v>
+                  <c:v>3.7075000000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0044157500000001E-3</c:v>
+                  <c:v>4.4560000000000002E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.144195E-4</c:v>
+                  <c:v>1.363475E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2430349999999999E-4</c:v>
+                  <c:v>1.153355E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.131108E-3</c:v>
+                  <c:v>1.1253382499999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.12947415E-2</c:v>
+                  <c:v>1.06350695E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6541675999999999E-2</c:v>
+                  <c:v>5.6411853249999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56208813224999998</c:v>
+                  <c:v>0.56460486200000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4388,17 +4381,6 @@
                 <a:effectLst/>
               </a:rPr>
               <a:t>(double) </a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-            </a:br>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>логарифмическая шкала</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -5112,7 +5094,7 @@
               <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>линейная шкала</a:t>
+              <a:t>логарифмическая шкала</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU" sz="1100">
               <a:effectLst/>
@@ -5532,6 +5514,7 @@
       <c:valAx>
         <c:axId val="1936509872"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5728,7 +5711,7 @@
               <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>линейная шкала</a:t>
+              <a:t>логарифмическая шкала</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU" sz="1100">
               <a:effectLst/>
@@ -6134,6 +6117,7 @@
       <c:valAx>
         <c:axId val="133287776"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -15108,15 +15092,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>899160</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:colOff>891540</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15145,14 +15129,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>944880</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1059180</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15772,8 +15756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E820A18-221D-4656-A150-551390AF7477}">
   <dimension ref="A1:AJ13"/>
   <sheetViews>
-    <sheetView topLeftCell="G25" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16112,14 +16096,14 @@
         <v>8.3333333000000004E-6</v>
       </c>
       <c r="V4" s="4">
-        <v>0.12688935164410001</v>
+        <v>2.9349999999999997E-7</v>
       </c>
       <c r="W4" s="4">
         <v>4.8100000000000003E-7</v>
       </c>
       <c r="X4" s="4">
         <f>W4/V4</f>
-        <v>3.7907042140865505E-6</v>
+        <v>1.6388415672913119</v>
       </c>
       <c r="Y4" s="4">
         <v>8.3333333000000004E-6</v>
@@ -16139,11 +16123,11 @@
       </c>
       <c r="AD4" s="4">
         <f>AA4/V4</f>
-        <v>6.1896929218592884</v>
+        <v>2676000.4147557071</v>
       </c>
       <c r="AE4" s="4">
         <f>AC4/X4</f>
-        <v>27.584335385296985</v>
+        <v>6.3803639396727159E-5</v>
       </c>
       <c r="AF4" s="13">
         <v>8.3333333000000004E-6</v>
@@ -16152,14 +16136,14 @@
         <v>8.3333333000000004E-6</v>
       </c>
       <c r="AH4" s="4">
-        <v>1.0002655250000001E-2</v>
+        <v>3.7075000000000001E-6</v>
       </c>
       <c r="AI4" s="4">
         <v>1.0004312499999999E-2</v>
       </c>
       <c r="AJ4" s="4">
         <f t="shared" ref="AJ4:AJ11" si="3">AI4/AH4</f>
-        <v>1.0001656810075503</v>
+        <v>2698.3985165205663</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
@@ -16235,14 +16219,14 @@
         <v>8.3333299999999999E-8</v>
       </c>
       <c r="V5" s="4">
-        <v>0.1251899048748</v>
+        <v>2.26E-6</v>
       </c>
       <c r="W5" s="4">
         <v>4.0177499999999998E-6</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" ref="X5:X11" si="9">W5/V5</f>
-        <v>3.2093242694113984E-5</v>
+        <v>1.7777654867256636</v>
       </c>
       <c r="Y5" s="4">
         <v>8.3333299999999999E-8</v>
@@ -16262,11 +16246,11 @@
       </c>
       <c r="AD5" s="4">
         <f t="shared" ref="AD5:AD11" si="11">AA5/V5</f>
-        <v>6.2741041141960912</v>
+        <v>347546.23771274334</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" ref="AE5:AE11" si="12">AC5/X5</f>
-        <v>32.167655856384414</v>
+        <v>5.8070898215102521E-4</v>
       </c>
       <c r="AF5" s="13">
         <v>8.3333299999999999E-8</v>
@@ -16275,14 +16259,14 @@
         <v>8.3333299999999999E-8</v>
       </c>
       <c r="AH5" s="4">
-        <v>1.0044157500000001E-3</v>
+        <v>4.4560000000000002E-6</v>
       </c>
       <c r="AI5" s="4">
         <v>1.0180002499999999E-3</v>
       </c>
       <c r="AJ5" s="4">
         <f t="shared" si="3"/>
-        <v>1.0135247779617154</v>
+        <v>228.45607046678631</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
@@ -16358,14 +16342,14 @@
         <v>8.3330000000000001E-10</v>
       </c>
       <c r="V6" s="4">
-        <v>0.1250411311563</v>
+        <v>2.2354999999999999E-5</v>
       </c>
       <c r="W6" s="4">
         <v>3.9484499999999998E-5</v>
       </c>
       <c r="X6" s="4">
         <f t="shared" si="9"/>
-        <v>3.1577209542870191E-4</v>
+        <v>1.7662491612614628</v>
       </c>
       <c r="Y6" s="4">
         <v>8.3330000000000001E-10</v>
@@ -16385,11 +16369,11 @@
       </c>
       <c r="AD6" s="4">
         <f t="shared" si="11"/>
-        <v>6.2856000728541135</v>
+        <v>35158.06500137777</v>
       </c>
       <c r="AE6" s="4">
         <f t="shared" si="12"/>
-        <v>37.752267284014025</v>
+        <v>6.7493945978399951E-3</v>
       </c>
       <c r="AF6" s="13">
         <v>8.3330000000000001E-10</v>
@@ -16398,14 +16382,14 @@
         <v>8.3330000000000001E-10</v>
       </c>
       <c r="AH6" s="4">
-        <v>1.144195E-4</v>
+        <v>1.363475E-5</v>
       </c>
       <c r="AI6" s="4">
         <v>2.5300125000000002E-4</v>
       </c>
       <c r="AJ6" s="4">
         <f t="shared" si="3"/>
-        <v>2.2111724837112559</v>
+        <v>18.555620748455233</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
@@ -16481,14 +16465,14 @@
         <v>8.2999999999999998E-12</v>
       </c>
       <c r="V7" s="4">
-        <v>0.1252233435141</v>
+        <v>2.2270375E-4</v>
       </c>
       <c r="W7" s="4">
         <v>3.9374925000000002E-4</v>
       </c>
       <c r="X7" s="4">
         <f t="shared" si="9"/>
-        <v>3.1443757924868401E-3</v>
+        <v>1.7680405022367158</v>
       </c>
       <c r="Y7" s="4">
         <v>8.3999999999999998E-12</v>
@@ -16508,11 +16492,11 @@
       </c>
       <c r="AD7" s="4">
         <f t="shared" si="11"/>
-        <v>6.3284384437496595</v>
+        <v>3558.3963949843683</v>
       </c>
       <c r="AE7" s="4">
         <f t="shared" si="12"/>
-        <v>32.502325128112012</v>
+        <v>5.780383662200124E-2</v>
       </c>
       <c r="AF7" s="13">
         <v>8.2999999999999998E-12</v>
@@ -16521,14 +16505,14 @@
         <v>8.2999999999999998E-12</v>
       </c>
       <c r="AH7" s="4">
-        <v>1.2430349999999999E-4</v>
+        <v>1.153355E-4</v>
       </c>
       <c r="AI7" s="4">
         <v>1.5243875E-3</v>
       </c>
       <c r="AJ7" s="4">
         <f t="shared" si="3"/>
-        <v>12.263431842224879</v>
+        <v>13.216984363010521</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
@@ -16604,14 +16588,14 @@
         <v>1E-13</v>
       </c>
       <c r="V8" s="4">
-        <v>0.12722766850010001</v>
+        <v>2.2259315000000002E-3</v>
       </c>
       <c r="W8" s="4">
         <v>3.9488709999999996E-3</v>
       </c>
       <c r="X8" s="4">
         <f t="shared" si="9"/>
-        <v>3.1037831994829769E-2</v>
+        <v>1.7740307821691725</v>
       </c>
       <c r="Y8" s="4">
         <v>0</v>
@@ -16631,11 +16615,11 @@
       </c>
       <c r="AD8" s="4">
         <f t="shared" si="11"/>
-        <v>6.6139396627922853</v>
+        <v>378.0332516510054</v>
       </c>
       <c r="AE8" s="4">
         <f t="shared" si="12"/>
-        <v>31.077653870956667</v>
+        <v>0.54372393609810599</v>
       </c>
       <c r="AF8" s="13">
         <v>1E-13</v>
@@ -16644,14 +16628,14 @@
         <v>1E-13</v>
       </c>
       <c r="AH8" s="4">
-        <v>1.131108E-3</v>
+        <v>1.1253382499999999E-3</v>
       </c>
       <c r="AI8" s="4">
         <v>1.50827485E-2</v>
       </c>
       <c r="AJ8" s="4">
         <f t="shared" si="3"/>
-        <v>13.334490163627169</v>
+        <v>13.402857762988152</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
@@ -16727,14 +16711,14 @@
         <v>0</v>
       </c>
       <c r="V9" s="4">
-        <v>0.14086739300000001</v>
+        <v>1.5621757999999999E-2</v>
       </c>
       <c r="W9" s="4">
         <v>2.4076813249999999E-2</v>
       </c>
       <c r="X9" s="4">
         <f t="shared" si="9"/>
-        <v>0.17091828518470556</v>
+        <v>1.5412358359411278</v>
       </c>
       <c r="Y9" s="4">
         <v>1E-13</v>
@@ -16754,11 +16738,11 @@
       </c>
       <c r="AD9" s="4">
         <f t="shared" si="11"/>
-        <v>9.5568705928092239</v>
+        <v>86.177973416781896</v>
       </c>
       <c r="AE9" s="4">
         <f t="shared" si="12"/>
-        <v>35.104527141961846</v>
+        <v>3.8929834366719591</v>
       </c>
       <c r="AF9" s="13">
         <v>0</v>
@@ -16767,14 +16751,14 @@
         <v>1E-13</v>
       </c>
       <c r="AH9" s="4">
-        <v>1.12947415E-2</v>
+        <v>1.06350695E-2</v>
       </c>
       <c r="AI9" s="4">
         <v>0.15197584524999999</v>
       </c>
       <c r="AJ9" s="4">
         <f t="shared" si="3"/>
-        <v>13.455451393022141</v>
+        <v>14.290066016963969</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
@@ -16850,14 +16834,14 @@
         <v>0</v>
       </c>
       <c r="V10" s="4">
-        <v>0.25487476662500003</v>
+        <v>0.12996826175000001</v>
       </c>
       <c r="W10" s="4">
         <v>0.2299231605</v>
       </c>
       <c r="X10" s="4">
         <f t="shared" si="9"/>
-        <v>0.90210248564263884</v>
+        <v>1.7690715979741876</v>
       </c>
       <c r="Y10" s="4">
         <v>5.9999999999999997E-13</v>
@@ -16877,11 +16861,11 @@
       </c>
       <c r="AD10" s="4">
         <f t="shared" si="11"/>
-        <v>25.085090333028173</v>
+        <v>49.193214237918355</v>
       </c>
       <c r="AE10" s="4">
         <f t="shared" si="12"/>
-        <v>13.92835744506865</v>
+        <v>7.1024857820926464</v>
       </c>
       <c r="AF10" s="13">
         <v>0</v>
@@ -16890,14 +16874,14 @@
         <v>1E-13</v>
       </c>
       <c r="AH10" s="4">
-        <v>5.6541675999999999E-2</v>
+        <v>5.6411853249999998E-2</v>
       </c>
       <c r="AI10" s="4">
         <v>1.5126712772499999</v>
       </c>
       <c r="AJ10" s="4">
         <f t="shared" si="3"/>
-        <v>26.753209035579349</v>
+        <v>26.814777216169546</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
@@ -16973,14 +16957,14 @@
         <v>0</v>
       </c>
       <c r="V11" s="4">
-        <v>1.4227878419375</v>
+        <v>1.3005261925</v>
       </c>
       <c r="W11" s="4">
         <v>2.299802997</v>
       </c>
       <c r="X11" s="4">
         <f t="shared" si="9"/>
-        <v>1.6164061353435613</v>
+        <v>1.7683634595463944</v>
       </c>
       <c r="Y11" s="4">
         <v>2.0000000000000001E-13</v>
@@ -17000,11 +16984,11 @@
       </c>
       <c r="AD11" s="4">
         <f t="shared" si="11"/>
-        <v>39.970655371889009</v>
+        <v>43.728271545286468</v>
       </c>
       <c r="AE11" s="4">
         <f t="shared" si="12"/>
-        <v>8.7260153582315869</v>
+        <v>7.97617971916572</v>
       </c>
       <c r="AF11" s="13">
         <v>0</v>
@@ -17013,14 +16997,14 @@
         <v>0</v>
       </c>
       <c r="AH11" s="4">
-        <v>0.56208813224999998</v>
+        <v>0.56460486200000004</v>
       </c>
       <c r="AI11" s="4">
         <v>15.064032785249999</v>
       </c>
       <c r="AJ11" s="4">
         <f t="shared" si="3"/>
-        <v>26.800126031748288</v>
+        <v>26.680664300141995</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
@@ -17042,15 +17026,15 @@
       </c>
       <c r="AD12" s="4">
         <f>AVERAGE(AD4:AD11)</f>
-        <v>13.288048939147231</v>
+        <v>382852.53082195792</v>
       </c>
       <c r="AE12" s="4">
         <f>AVERAGE(AE4:AE11)</f>
-        <v>27.355392183753274</v>
+        <v>2.4475713272337276</v>
       </c>
       <c r="AJ12" s="4">
         <f>AVERAGE(AJ4:AJ11)</f>
-        <v>12.103946426110294</v>
+        <v>379.97694467438527</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
@@ -17072,15 +17056,15 @@
       </c>
       <c r="AD13" s="4">
         <f>MAX(AD4:AD11)-MIN(AD4:AD11)</f>
-        <v>33.780962450029719</v>
+        <v>2675956.6864841618</v>
       </c>
       <c r="AE13" s="4">
         <f>MAX(AE4:AE11)-MIN(AE4:AE11)</f>
-        <v>29.026251925782439</v>
+        <v>7.9761159155263233</v>
       </c>
       <c r="AJ13" s="4">
         <f>MAX(AJ4:AJ11)-MIN(AJ4:AJ11)</f>
-        <v>25.799960350740736</v>
+        <v>2685.1815321575559</v>
       </c>
     </row>
   </sheetData>
@@ -17116,7 +17100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1CE195-C062-47CA-8580-D3479DE98BDB}">
   <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H28" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
@@ -17344,11 +17328,11 @@
         <v>0.169187</v>
       </c>
       <c r="G4" s="4">
-        <f>F4/E4</f>
+        <f t="shared" ref="G4:G11" si="0">F4/E4</f>
         <v>17.744977114352718</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H11" si="0">E4/B4</f>
+        <f t="shared" ref="H4:H11" si="1">E4/B4</f>
         <v>4.7300725806051522</v>
       </c>
       <c r="I4" s="4">
@@ -17362,7 +17346,7 @@
         <v>5.95985E-3</v>
       </c>
       <c r="L4" s="4">
-        <f>K4/J4</f>
+        <f t="shared" ref="L4:L11" si="2">K4/J4</f>
         <v>3.2176619534291095</v>
       </c>
       <c r="M4" s="4">
@@ -17376,7 +17360,7 @@
         <v>28.508556060802036</v>
       </c>
       <c r="P4" s="4">
-        <f t="shared" ref="P4:P11" si="1">M4/J4</f>
+        <f t="shared" ref="P4:P11" si="3">M4/J4</f>
         <v>3.2140122986886079</v>
       </c>
       <c r="Q4" s="4">
@@ -17404,11 +17388,11 @@
         <v>28.571812879459145</v>
       </c>
       <c r="X4" s="4">
-        <f>U4/R4</f>
+        <f t="shared" ref="X4:X11" si="4">U4/R4</f>
         <v>6.5894924605856477</v>
       </c>
       <c r="Y4" s="4">
-        <f>W4/T4</f>
+        <f t="shared" ref="Y4:Y11" si="5">W4/T4</f>
         <v>7.4244581317446317</v>
       </c>
       <c r="Z4" s="4">
@@ -17418,7 +17402,7 @@
         <v>2.6198200000000001E-3</v>
       </c>
       <c r="AB4" s="4">
-        <f t="shared" ref="AB4:AB11" si="2">AA4/Z4</f>
+        <f t="shared" ref="AB4:AB11" si="6">AA4/Z4</f>
         <v>5.4071089793070994</v>
       </c>
     </row>
@@ -17433,7 +17417,7 @@
         <v>2.8602499999999999E-2</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:D13" si="3">C5/B5</f>
+        <f t="shared" ref="D5:D13" si="7">C5/B5</f>
         <v>2.7092114610466496</v>
       </c>
       <c r="E5" s="4">
@@ -17443,15 +17427,15 @@
         <v>1.3817900000000001</v>
       </c>
       <c r="G5" s="4">
-        <f>F5/E5</f>
+        <f t="shared" si="0"/>
         <v>14.13445526000303</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.2598058252427187</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" ref="I5:I11" si="4">G5/D5</f>
+        <f t="shared" ref="I5:I11" si="8">G5/D5</f>
         <v>5.2171842114319364</v>
       </c>
       <c r="J5" s="4">
@@ -17461,7 +17445,7 @@
         <v>1.7787399999999998E-2</v>
       </c>
       <c r="L5" s="4">
-        <f>K5/J5</f>
+        <f t="shared" si="2"/>
         <v>1.6993302953006026</v>
       </c>
       <c r="M5" s="4">
@@ -17471,15 +17455,15 @@
         <v>1.3921399999999999</v>
       </c>
       <c r="O5" s="4">
-        <f t="shared" ref="O5:O13" si="5">N5/M5</f>
+        <f t="shared" ref="O5:O13" si="9">N5/M5</f>
         <v>24.034694874667874</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.533623761619519</v>
       </c>
       <c r="Q5" s="4">
-        <f t="shared" ref="Q5:Q11" si="6">O5/L5</f>
+        <f t="shared" ref="Q5:Q11" si="10">O5/L5</f>
         <v>14.143627605024403</v>
       </c>
       <c r="R5" s="4">
@@ -17489,7 +17473,7 @@
         <v>2.7380700000000001E-2</v>
       </c>
       <c r="T5" s="4">
-        <f t="shared" ref="T5:T13" si="7">S5/R5</f>
+        <f t="shared" ref="T5:T13" si="11">S5/R5</f>
         <v>3.5322916478532007</v>
       </c>
       <c r="U5" s="4">
@@ -17499,15 +17483,15 @@
         <v>1.3868400000000001</v>
       </c>
       <c r="W5" s="4">
-        <f t="shared" ref="W5:W13" si="8">V5/U5</f>
+        <f t="shared" ref="W5:W13" si="12">V5/U5</f>
         <v>23.5629928283441</v>
       </c>
       <c r="X5" s="4">
-        <f>U5/R5</f>
+        <f t="shared" si="4"/>
         <v>7.5929041196975042</v>
       </c>
       <c r="Y5" s="4">
-        <f>W5/T5</f>
+        <f t="shared" si="5"/>
         <v>6.6707381998496178</v>
       </c>
       <c r="Z5" s="4">
@@ -17517,7 +17501,7 @@
         <v>2.5305500000000002E-2</v>
       </c>
       <c r="AB5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.5207420176923661</v>
       </c>
     </row>
@@ -17532,7 +17516,7 @@
         <v>9.6381499999999995E-2</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.2949226409040673</v>
       </c>
       <c r="E6" s="4">
@@ -17542,15 +17526,15 @@
         <v>4.8069600000000001</v>
       </c>
       <c r="G6" s="4">
-        <f>F6/E6</f>
+        <f t="shared" si="0"/>
         <v>12.886981279272083</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.621911874799473</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.000515342590528</v>
       </c>
       <c r="J6" s="4">
@@ -17560,7 +17544,7 @@
         <v>5.95148E-2</v>
       </c>
       <c r="L6" s="4">
-        <f>K6/J6</f>
+        <f t="shared" si="2"/>
         <v>2.819203713791715</v>
       </c>
       <c r="M6" s="4">
@@ -17570,15 +17554,15 @@
         <v>4.7998000000000003</v>
       </c>
       <c r="O6" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>20.995030968961053</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.829492432675684</v>
       </c>
       <c r="Q6" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7.4471493018585688</v>
       </c>
       <c r="R6" s="4">
@@ -17588,7 +17572,7 @@
         <v>9.1636599999999999E-2</v>
       </c>
       <c r="T6" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7.0539612648951566</v>
       </c>
       <c r="U6" s="4">
@@ -17598,15 +17582,15 @@
         <v>4.8210199999999999</v>
       </c>
       <c r="W6" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>21.109364532386387</v>
       </c>
       <c r="X6" s="4">
-        <f>U6/R6</f>
+        <f t="shared" si="4"/>
         <v>17.580364565692644</v>
       </c>
       <c r="Y6" s="4">
-        <f>W6/T6</f>
+        <f t="shared" si="5"/>
         <v>2.9925546426572467</v>
       </c>
       <c r="Z6" s="4">
@@ -17616,7 +17600,7 @@
         <v>9.5278699999999994E-2</v>
       </c>
       <c r="AB6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.1430274314588376</v>
       </c>
     </row>
@@ -17631,7 +17615,7 @@
         <v>0.23596500000000001</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.3274891338236108</v>
       </c>
       <c r="E7" s="4">
@@ -17641,15 +17625,15 @@
         <v>12.648899999999999</v>
       </c>
       <c r="G7" s="4">
-        <f>F7/E7</f>
+        <f t="shared" si="0"/>
         <v>7.7402595813165096</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29.969923157334897</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.7886260004256787</v>
       </c>
       <c r="J7" s="4">
@@ -17659,7 +17643,7 @@
         <v>0.147178</v>
       </c>
       <c r="L7" s="4">
-        <f>K7/J7</f>
+        <f t="shared" si="2"/>
         <v>2.8860129027197678</v>
       </c>
       <c r="M7" s="4">
@@ -17669,15 +17653,15 @@
         <v>12.6776</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9.5677111634365755</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25.982704864992058</v>
       </c>
       <c r="Q7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3.3152004117583811</v>
       </c>
       <c r="R7" s="4">
@@ -17687,7 +17671,7 @@
         <v>0.22106300000000001</v>
       </c>
       <c r="T7" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.8886535874588786</v>
       </c>
       <c r="U7" s="4">
@@ -17697,15 +17681,15 @@
         <v>12.551399999999999</v>
       </c>
       <c r="W7" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>9.9273132805517541</v>
       </c>
       <c r="X7" s="4">
-        <f>U7/R7</f>
+        <f t="shared" si="4"/>
         <v>33.679093245961027</v>
       </c>
       <c r="Y7" s="4">
-        <f>W7/T7</f>
+        <f t="shared" si="5"/>
         <v>1.6858375404683419</v>
       </c>
       <c r="Z7" s="4">
@@ -17715,7 +17699,7 @@
         <v>0.44961200000000001</v>
       </c>
       <c r="AB7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>22.703319564931984</v>
       </c>
     </row>
@@ -17730,7 +17714,7 @@
         <v>0.60554699999999995</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.7356501477608539</v>
       </c>
       <c r="E8" s="4">
@@ -17740,15 +17724,15 @@
         <v>26.038900000000002</v>
       </c>
       <c r="G8" s="4">
-        <f>F8/E8</f>
+        <f t="shared" si="0"/>
         <v>8.5787755290303664</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28.749621126013487</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.4956936542545998</v>
       </c>
       <c r="J8" s="4">
@@ -17758,7 +17742,7 @@
         <v>0.43921500000000002</v>
       </c>
       <c r="L8" s="4">
-        <f>K8/J8</f>
+        <f t="shared" si="2"/>
         <v>4.3691681753974096</v>
       </c>
       <c r="M8" s="4">
@@ -17768,15 +17752,15 @@
         <v>26.2273</v>
       </c>
       <c r="O8" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10.259907913421403</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25.429142709348827</v>
       </c>
       <c r="Q8" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.3482520016497612</v>
       </c>
       <c r="R8" s="4">
@@ -17786,7 +17770,7 @@
         <v>0.62780100000000005</v>
       </c>
       <c r="T8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8.2798118251561856</v>
       </c>
       <c r="U8" s="4">
@@ -17796,15 +17780,15 @@
         <v>26.135300000000001</v>
       </c>
       <c r="W8" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>11.491883002673422</v>
       </c>
       <c r="X8" s="4">
-        <f>U8/R8</f>
+        <f t="shared" si="4"/>
         <v>29.994025567406236</v>
       </c>
       <c r="Y8" s="4">
-        <f>W8/T8</f>
+        <f t="shared" si="5"/>
         <v>1.3879401181266153</v>
       </c>
       <c r="Z8" s="4">
@@ -17814,7 +17798,7 @@
         <v>1.0150300000000001</v>
       </c>
       <c r="AB8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>25.852535383816029</v>
       </c>
     </row>
@@ -17829,7 +17813,7 @@
         <v>0.873672</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.704546923126629</v>
       </c>
       <c r="E9" s="4">
@@ -17839,15 +17823,15 @@
         <v>46.448900000000002</v>
       </c>
       <c r="G9" s="4">
-        <f>F9/E9</f>
+        <f t="shared" si="0"/>
         <v>6.0998187739664864</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41.004157063777541</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.2965794312691357</v>
       </c>
       <c r="J9" s="4">
@@ -17857,7 +17841,7 @@
         <v>0.57806599999999997</v>
       </c>
       <c r="L9" s="4">
-        <f>K9/J9</f>
+        <f t="shared" si="2"/>
         <v>3.2919851023360174</v>
       </c>
       <c r="M9" s="4">
@@ -17867,15 +17851,15 @@
         <v>46.599499999999999</v>
       </c>
       <c r="O9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.2581047109654619</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>36.562717115229106</v>
       </c>
       <c r="Q9" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.2047805458825001</v>
       </c>
       <c r="R9" s="4">
@@ -17885,7 +17869,7 @@
         <v>0.854904</v>
       </c>
       <c r="T9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6.5455714810731349</v>
       </c>
       <c r="U9" s="4">
@@ -17895,15 +17879,15 @@
         <v>46.6614</v>
       </c>
       <c r="W9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7.1833405688000518</v>
       </c>
       <c r="X9" s="4">
-        <f>U9/R9</f>
+        <f t="shared" si="4"/>
         <v>49.734932010290336</v>
       </c>
       <c r="Y9" s="4">
-        <f>W9/T9</f>
+        <f t="shared" si="5"/>
         <v>1.097435203262398</v>
       </c>
       <c r="Z9" s="4">
@@ -17913,7 +17897,7 @@
         <v>2.0329899999999999</v>
       </c>
       <c r="AB9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>29.778847393276067</v>
       </c>
     </row>
@@ -17928,7 +17912,7 @@
         <v>1.4330700000000001</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.6406655289549787</v>
       </c>
       <c r="E10" s="4">
@@ -17938,15 +17922,15 @@
         <v>73.738100000000003</v>
       </c>
       <c r="G10" s="4">
-        <f>F10/E10</f>
+        <f t="shared" si="0"/>
         <v>5.3204011688733361</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44.88078314286917</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.1464737408195469</v>
       </c>
       <c r="J10" s="4">
@@ -17956,7 +17940,7 @@
         <v>1.0108600000000001</v>
       </c>
       <c r="L10" s="4">
-        <f>K10/J10</f>
+        <f t="shared" si="2"/>
         <v>3.4142947373398589</v>
       </c>
       <c r="M10" s="4">
@@ -17966,15 +17950,15 @@
         <v>73.997299999999996</v>
       </c>
       <c r="O10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6.2127264789347301</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40.229407532754408</v>
       </c>
       <c r="Q10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.8196221934182466</v>
       </c>
       <c r="R10" s="4">
@@ -17984,7 +17968,7 @@
         <v>1.21163</v>
       </c>
       <c r="T10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.3392941342370017</v>
       </c>
       <c r="U10" s="4">
@@ -17994,15 +17978,15 @@
         <v>74.131500000000003</v>
       </c>
       <c r="W10" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6.1995818523938953</v>
       </c>
       <c r="X10" s="4">
-        <f>U10/R10</f>
+        <f t="shared" si="4"/>
         <v>52.693156830170054</v>
       </c>
       <c r="Y10" s="4">
-        <f>W10/T10</f>
+        <f t="shared" si="5"/>
         <v>1.1611238670371231</v>
       </c>
       <c r="Z10" s="4">
@@ -18012,7 +17996,7 @@
         <v>3.7886600000000001</v>
       </c>
       <c r="AB10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>34.722988516281589</v>
       </c>
     </row>
@@ -18027,7 +18011,7 @@
         <v>2.6095600000000001</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>4.5891087890096056</v>
       </c>
       <c r="E11" s="4">
@@ -18037,15 +18021,15 @@
         <v>110.40300000000001</v>
       </c>
       <c r="G11" s="4">
-        <f>F11/E11</f>
+        <f t="shared" si="0"/>
         <v>5.0471788682557541</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38.467436453867279</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1.0998167836733734</v>
       </c>
       <c r="J11" s="4">
@@ -18055,7 +18039,7 @@
         <v>1.9441900000000001</v>
       </c>
       <c r="L11" s="4">
-        <f>K11/J11</f>
+        <f t="shared" si="2"/>
         <v>3.5065895436648575</v>
       </c>
       <c r="M11" s="4">
@@ -18065,15 +18049,15 @@
         <v>111.633</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.8736898598307858</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34.278973881707458</v>
       </c>
       <c r="Q11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.67504345367208</v>
       </c>
       <c r="R11" s="4">
@@ -18083,7 +18067,7 @@
         <v>2.2316500000000001</v>
       </c>
       <c r="T11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.1076622371956555</v>
       </c>
       <c r="U11" s="4">
@@ -18093,15 +18077,15 @@
         <v>111.40600000000001</v>
       </c>
       <c r="W11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.9024922646547706</v>
       </c>
       <c r="X11" s="4">
-        <f>U11/R11</f>
+        <f t="shared" si="4"/>
         <v>43.198557179542348</v>
       </c>
       <c r="Y11" s="4">
-        <f>W11/T11</f>
+        <f t="shared" si="5"/>
         <v>1.1556152287578658</v>
       </c>
       <c r="Z11" s="4">
@@ -18111,7 +18095,7 @@
         <v>5.8071099999999998</v>
       </c>
       <c r="AB11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>25.006933080699334</v>
       </c>
     </row>
@@ -18126,7 +18110,7 @@
         <v>3.1626300000000001</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.8404595975970945</v>
       </c>
       <c r="E12" s="4">
@@ -18136,7 +18120,7 @@
         <v>157.53899999999999</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" ref="G12:G13" si="9">F12/E12</f>
+        <f t="shared" ref="G12:G13" si="13">F12/E12</f>
         <v>4.7641930245287636</v>
       </c>
       <c r="H12" s="4">
@@ -18154,7 +18138,7 @@
         <v>2.22695</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" ref="L12:L13" si="10">K12/J12</f>
+        <f t="shared" ref="L12:L13" si="14">K12/J12</f>
         <v>2.8045251216538882</v>
       </c>
       <c r="M12" s="4">
@@ -18164,7 +18148,7 @@
         <v>158.82599999999999</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.4378871035665739</v>
       </c>
       <c r="P12" s="4">
@@ -18182,7 +18166,7 @@
         <v>2.4108200000000002</v>
       </c>
       <c r="T12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.8296831339980848</v>
       </c>
       <c r="U12" s="4">
@@ -18192,7 +18176,7 @@
         <v>158.74799999999999</v>
       </c>
       <c r="W12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.4872952392145207</v>
       </c>
       <c r="X12" s="4">
@@ -18225,7 +18209,7 @@
         <v>4.2176400000000003</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>3.3867105632954595</v>
       </c>
       <c r="E13" s="4">
@@ -18235,7 +18219,7 @@
         <v>220.959</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>4.7581711450585509</v>
       </c>
       <c r="H13" s="4">
@@ -18253,7 +18237,7 @@
         <v>3.0288499999999998</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.5547842369850535</v>
       </c>
       <c r="M13" s="4">
@@ -18263,7 +18247,7 @@
         <v>222.268</v>
       </c>
       <c r="O13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.4418764077955144</v>
       </c>
       <c r="P13" s="4">
@@ -18281,7 +18265,7 @@
         <v>3.31413</v>
       </c>
       <c r="T13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.4028141421733213</v>
       </c>
       <c r="U13" s="4">
@@ -18291,7 +18275,7 @@
         <v>222.172</v>
       </c>
       <c r="W13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5.4060130617170996</v>
       </c>
       <c r="X13" s="4">

--- a/results/new_pi_matrix.xlsx
+++ b/results/new_pi_matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Education\risc_v\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97098F94-CBC7-4293-B203-F265AED1C4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49EAD96-6A2E-47D2-9554-72C4EB0A0A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C5123AA-3652-4661-A586-32097E39DAF3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1C5123AA-3652-4661-A586-32097E39DAF3}"/>
   </bookViews>
   <sheets>
     <sheet name="pi" sheetId="1" r:id="rId1"/>
@@ -314,24 +314,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -342,6 +324,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -358,6 +346,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -747,28 +747,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2676000.4147557071</c:v>
+                  <c:v>20.230834752981263</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>347546.23771274334</c:v>
+                  <c:v>24.917256637168144</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35158.06500137777</c:v>
+                  <c:v>25.067322746589131</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3558.3963949843683</c:v>
+                  <c:v>28.001577207388742</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>378.0332516510054</c:v>
+                  <c:v>25.196055561458198</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>86.177973416781896</c:v>
+                  <c:v>35.912078109262737</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.193214237918355</c:v>
+                  <c:v>43.225096112743849</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43.728271545286468</c:v>
+                  <c:v>43.12009438979446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -846,28 +846,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2698.3985165205663</c:v>
+                  <c:v>1.1968981793661497</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>228.45607046678631</c:v>
+                  <c:v>4.0394973070017954</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.555620748455233</c:v>
+                  <c:v>11.212270118630705</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.216984363010521</c:v>
+                  <c:v>26.417789839208222</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.402857762988152</c:v>
+                  <c:v>13.418282236474235</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.290066016963969</c:v>
+                  <c:v>14.264987431440858</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.814777216169546</c:v>
+                  <c:v>26.794076806012399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.680664300141995</c:v>
+                  <c:v>26.665448738643697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3417,28 +3417,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6.3803639396727159E-5</c:v>
+                  <c:v>8.4395215310334653</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8070898215102521E-4</c:v>
+                  <c:v>8.0997368567265653</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7493945978399951E-3</c:v>
+                  <c:v>9.4663341749607053</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.780383662200124E-2</c:v>
+                  <c:v>7.345620653029493</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54372393609810599</c:v>
+                  <c:v>8.1578534013898913</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8929834366719591</c:v>
+                  <c:v>9.3419662904708431</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.1024857820926464</c:v>
+                  <c:v>8.083130776364948</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.97617971916572</c:v>
+                  <c:v>8.0886778563322128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4685,28 +4685,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.78540612173080004</c:v>
+                  <c:v>5.93775E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78545449723079996</c:v>
+                  <c:v>5.6313000000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78595854310580004</c:v>
+                  <c:v>5.6037999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7924682211495</c:v>
+                  <c:v>6.2360562500000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.84147612289740004</c:v>
+                  <c:v>5.6084693749999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3462514456474</c:v>
+                  <c:v>0.56100979350000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.3935565443976001</c:v>
+                  <c:v>5.6178906057500004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56.869762497397502</c:v>
+                  <c:v>56.078812177000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4784,28 +4784,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.0004312499999999E-2</c:v>
+                  <c:v>4.4375000000000003E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0180002499999999E-3</c:v>
+                  <c:v>1.8E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5300125000000002E-4</c:v>
+                  <c:v>1.5287650000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5243875E-3</c:v>
+                  <c:v>3.046909E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.50827485E-2</c:v>
+                  <c:v>1.510010625E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15197584524999999</c:v>
+                  <c:v>0.15170913275</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5126712772499999</c:v>
+                  <c:v>1.51150352875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.064032785249999</c:v>
+                  <c:v>15.055442005250001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5085,17 +5085,6 @@
               </a:rPr>
               <a:t>long double)</a:t>
             </a:r>
-            <a:br>
-              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-            </a:br>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>логарифмическая шкала</a:t>
-            </a:r>
             <a:endParaRPr lang="ru-RU" sz="1100">
               <a:effectLst/>
             </a:endParaRPr>
@@ -5701,17 +5690,6 @@
                 <a:effectLst/>
               </a:rPr>
               <a:t>(long double) </a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-            </a:br>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>логарифмическая шкала</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU" sz="1100">
               <a:effectLst/>
@@ -15165,14 +15143,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15756,8 +15734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E820A18-221D-4656-A150-551390AF7477}">
   <dimension ref="A1:AJ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView topLeftCell="H21" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15798,115 +15776,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="28" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="19" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="16" t="s">
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="23" t="s">
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="25" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="15" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="17" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="25" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="15" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="17" t="s">
+      <c r="S2" s="26"/>
+      <c r="T2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="18"/>
-      <c r="V2" s="25" t="s">
+      <c r="U2" s="20"/>
+      <c r="V2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="17"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="15" t="s">
+      <c r="W2" s="19"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="25" t="s">
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="15" t="s">
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="21" t="s">
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AG2" s="26" t="s">
+      <c r="AG2" s="22" t="s">
         <v>12</v>
       </c>
       <c r="AH2" s="6" t="s">
@@ -15920,7 +15898,7 @@
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -16011,8 +15989,8 @@
       <c r="AE3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" s="22"/>
-      <c r="AG3" s="27"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="23"/>
       <c r="AH3" s="1" t="s">
         <v>9</v>
       </c>
@@ -16112,22 +16090,22 @@
         <v>8.3333333000000004E-6</v>
       </c>
       <c r="AA4" s="4">
-        <v>0.78540612173080004</v>
+        <v>5.93775E-6</v>
       </c>
       <c r="AB4" s="3">
         <v>8.2125249999999994E-5</v>
       </c>
       <c r="AC4" s="3">
         <f>AB4/AA4</f>
-        <v>1.0456405638782203E-4</v>
+        <v>13.831038693107658</v>
       </c>
       <c r="AD4" s="4">
         <f>AA4/V4</f>
-        <v>2676000.4147557071</v>
+        <v>20.230834752981263</v>
       </c>
       <c r="AE4" s="4">
         <f>AC4/X4</f>
-        <v>6.3803639396727159E-5</v>
+        <v>8.4395215310334653</v>
       </c>
       <c r="AF4" s="13">
         <v>8.3333333000000004E-6</v>
@@ -16139,11 +16117,11 @@
         <v>3.7075000000000001E-6</v>
       </c>
       <c r="AI4" s="4">
-        <v>1.0004312499999999E-2</v>
+        <v>4.4375000000000003E-6</v>
       </c>
       <c r="AJ4" s="4">
         <f t="shared" ref="AJ4:AJ11" si="3">AI4/AH4</f>
-        <v>2698.3985165205663</v>
+        <v>1.1968981793661497</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
@@ -16235,22 +16213,22 @@
         <v>8.3333299999999999E-8</v>
       </c>
       <c r="AA5" s="4">
-        <v>0.78545449723079996</v>
+        <v>5.6313000000000001E-5</v>
       </c>
       <c r="AB5" s="3">
         <v>8.1087525000000005E-4</v>
       </c>
       <c r="AC5" s="3">
         <f t="shared" ref="AC5:AC11" si="10">AB5/AA5</f>
-        <v>1.0323643862996819E-3</v>
+        <v>14.399432635448299</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" ref="AD5:AD11" si="11">AA5/V5</f>
-        <v>347546.23771274334</v>
+        <v>24.917256637168144</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" ref="AE5:AE11" si="12">AC5/X5</f>
-        <v>5.8070898215102521E-4</v>
+        <v>8.0997368567265653</v>
       </c>
       <c r="AF5" s="13">
         <v>8.3333299999999999E-8</v>
@@ -16262,11 +16240,11 @@
         <v>4.4560000000000002E-6</v>
       </c>
       <c r="AI5" s="4">
-        <v>1.0180002499999999E-3</v>
+        <v>1.8E-5</v>
       </c>
       <c r="AJ5" s="4">
         <f t="shared" si="3"/>
-        <v>228.45607046678631</v>
+        <v>4.0394973070017954</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
@@ -16358,22 +16336,22 @@
         <v>8.3330000000000001E-10</v>
       </c>
       <c r="AA6" s="4">
-        <v>0.78595854310580004</v>
+        <v>5.6037999999999997E-4</v>
       </c>
       <c r="AB6" s="3">
         <v>9.3695002499999992E-3</v>
       </c>
       <c r="AC6" s="3">
         <f t="shared" si="10"/>
-        <v>1.1921112547457539E-2</v>
+        <v>16.719904796745066</v>
       </c>
       <c r="AD6" s="4">
         <f t="shared" si="11"/>
-        <v>35158.06500137777</v>
+        <v>25.067322746589131</v>
       </c>
       <c r="AE6" s="4">
         <f t="shared" si="12"/>
-        <v>6.7493945978399951E-3</v>
+        <v>9.4663341749607053</v>
       </c>
       <c r="AF6" s="13">
         <v>8.3330000000000001E-10</v>
@@ -16385,11 +16363,11 @@
         <v>1.363475E-5</v>
       </c>
       <c r="AI6" s="4">
-        <v>2.5300125000000002E-4</v>
+        <v>1.5287650000000001E-4</v>
       </c>
       <c r="AJ6" s="4">
         <f t="shared" si="3"/>
-        <v>18.555620748455233</v>
+        <v>11.212270118630705</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
@@ -16481,22 +16459,22 @@
         <v>8.2999999999999998E-12</v>
       </c>
       <c r="AA7" s="4">
-        <v>0.7924682211495</v>
+        <v>6.2360562500000001E-3</v>
       </c>
       <c r="AB7" s="3">
         <v>8.0989875249999996E-2</v>
       </c>
       <c r="AC7" s="3">
         <f t="shared" si="10"/>
-        <v>0.10219952433237214</v>
+        <v>12.987354828622657</v>
       </c>
       <c r="AD7" s="4">
         <f t="shared" si="11"/>
-        <v>3558.3963949843683</v>
+        <v>28.001577207388742</v>
       </c>
       <c r="AE7" s="4">
         <f t="shared" si="12"/>
-        <v>5.780383662200124E-2</v>
+        <v>7.345620653029493</v>
       </c>
       <c r="AF7" s="13">
         <v>8.2999999999999998E-12</v>
@@ -16508,11 +16486,11 @@
         <v>1.153355E-4</v>
       </c>
       <c r="AI7" s="4">
-        <v>1.5243875E-3</v>
+        <v>3.046909E-3</v>
       </c>
       <c r="AJ7" s="4">
         <f t="shared" si="3"/>
-        <v>13.216984363010521</v>
+        <v>26.417789839208222</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
@@ -16604,22 +16582,22 @@
         <v>1E-13</v>
       </c>
       <c r="AA8" s="4">
-        <v>0.84147612289740004</v>
+        <v>5.6084693749999998E-2</v>
       </c>
       <c r="AB8" s="3">
         <v>0.81167356275000002</v>
       </c>
       <c r="AC8" s="3">
         <f t="shared" si="10"/>
-        <v>0.96458299964022409</v>
+        <v>14.472283050489155</v>
       </c>
       <c r="AD8" s="4">
         <f t="shared" si="11"/>
-        <v>378.0332516510054</v>
+        <v>25.196055561458198</v>
       </c>
       <c r="AE8" s="4">
         <f t="shared" si="12"/>
-        <v>0.54372393609810599</v>
+        <v>8.1578534013898913</v>
       </c>
       <c r="AF8" s="13">
         <v>1E-13</v>
@@ -16631,11 +16609,11 @@
         <v>1.1253382499999999E-3</v>
       </c>
       <c r="AI8" s="4">
-        <v>1.50827485E-2</v>
+        <v>1.510010625E-2</v>
       </c>
       <c r="AJ8" s="4">
         <f t="shared" si="3"/>
-        <v>13.402857762988152</v>
+        <v>13.418282236474235</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
@@ -16727,22 +16705,22 @@
         <v>0</v>
       </c>
       <c r="AA9" s="4">
-        <v>1.3462514456474</v>
+        <v>0.56100979350000002</v>
       </c>
       <c r="AB9" s="3">
         <v>8.0775161877499997</v>
       </c>
       <c r="AC9" s="3">
         <f t="shared" si="10"/>
-        <v>6.0000055813240714</v>
+        <v>14.398173225027666</v>
       </c>
       <c r="AD9" s="4">
         <f t="shared" si="11"/>
-        <v>86.177973416781896</v>
+        <v>35.912078109262737</v>
       </c>
       <c r="AE9" s="4">
         <f t="shared" si="12"/>
-        <v>3.8929834366719591</v>
+        <v>9.3419662904708431</v>
       </c>
       <c r="AF9" s="13">
         <v>0</v>
@@ -16754,11 +16732,11 @@
         <v>1.06350695E-2</v>
       </c>
       <c r="AI9" s="4">
-        <v>0.15197584524999999</v>
+        <v>0.15170913275</v>
       </c>
       <c r="AJ9" s="4">
         <f t="shared" si="3"/>
-        <v>14.290066016963969</v>
+        <v>14.264987431440858</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
@@ -16850,22 +16828,22 @@
         <v>0</v>
       </c>
       <c r="AA10" s="4">
-        <v>6.3935565443976001</v>
+        <v>5.6178906057500004</v>
       </c>
       <c r="AB10" s="3">
         <v>80.333796812749995</v>
       </c>
       <c r="AC10" s="3">
         <f t="shared" si="10"/>
-        <v>12.564805872115585</v>
+        <v>14.299637079178273</v>
       </c>
       <c r="AD10" s="4">
         <f t="shared" si="11"/>
-        <v>49.193214237918355</v>
+        <v>43.225096112743849</v>
       </c>
       <c r="AE10" s="4">
         <f t="shared" si="12"/>
-        <v>7.1024857820926464</v>
+        <v>8.083130776364948</v>
       </c>
       <c r="AF10" s="13">
         <v>0</v>
@@ -16877,11 +16855,11 @@
         <v>5.6411853249999998E-2</v>
       </c>
       <c r="AI10" s="4">
-        <v>1.5126712772499999</v>
+        <v>1.51150352875</v>
       </c>
       <c r="AJ10" s="4">
         <f t="shared" si="3"/>
-        <v>26.814777216169546</v>
+        <v>26.794076806012399</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
@@ -16973,22 +16951,22 @@
         <v>0</v>
       </c>
       <c r="AA11" s="4">
-        <v>56.869762497397502</v>
+        <v>56.078812177000003</v>
       </c>
       <c r="AB11" s="3">
         <v>802.13575950024995</v>
       </c>
       <c r="AC11" s="3">
         <f t="shared" si="10"/>
-        <v>14.104784762147681</v>
+        <v>14.303722357179947</v>
       </c>
       <c r="AD11" s="4">
         <f t="shared" si="11"/>
-        <v>43.728271545286468</v>
+        <v>43.12009438979446</v>
       </c>
       <c r="AE11" s="4">
         <f t="shared" si="12"/>
-        <v>7.97617971916572</v>
+        <v>8.0886778563322128</v>
       </c>
       <c r="AF11" s="13">
         <v>0</v>
@@ -17000,11 +16978,11 @@
         <v>0.56460486200000004</v>
       </c>
       <c r="AI11" s="4">
-        <v>15.064032785249999</v>
+        <v>15.055442005250001</v>
       </c>
       <c r="AJ11" s="4">
         <f t="shared" si="3"/>
-        <v>26.680664300141995</v>
+        <v>26.665448738643697</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
@@ -17026,15 +17004,15 @@
       </c>
       <c r="AD12" s="4">
         <f>AVERAGE(AD4:AD11)</f>
-        <v>382852.53082195792</v>
+        <v>30.708789439673311</v>
       </c>
       <c r="AE12" s="4">
         <f>AVERAGE(AE4:AE11)</f>
-        <v>2.4475713272337276</v>
+        <v>8.3778551925385152</v>
       </c>
       <c r="AJ12" s="4">
         <f>AVERAGE(AJ4:AJ11)</f>
-        <v>379.97694467438527</v>
+        <v>15.501156332097256</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
@@ -17056,19 +17034,29 @@
       </c>
       <c r="AD13" s="4">
         <f>MAX(AD4:AD11)-MIN(AD4:AD11)</f>
-        <v>2675956.6864841618</v>
+        <v>22.994261359762586</v>
       </c>
       <c r="AE13" s="4">
         <f>MAX(AE4:AE11)-MIN(AE4:AE11)</f>
-        <v>7.9761159155263233</v>
+        <v>2.1207135219312123</v>
       </c>
       <c r="AJ13" s="4">
         <f>MAX(AJ4:AJ11)-MIN(AJ4:AJ11)</f>
-        <v>2685.1815321575559</v>
+        <v>25.597178626646247</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="T1:AE1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="AF2:AF3"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="D2:F2"/>
@@ -17079,16 +17067,6 @@
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="D1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="T1:AE1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17100,8 +17078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1CE195-C062-47CA-8580-D3479DE98BDB}">
   <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+    <sheetView tabSelected="1" topLeftCell="H26" workbookViewId="0">
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17131,26 +17109,26 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="19" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
       <c r="R1" s="30" t="s">
         <v>7</v>
       </c>
@@ -17165,54 +17143,54 @@
         <v>11</v>
       </c>
       <c r="AA1" s="34"/>
-      <c r="AB1" s="23"/>
+      <c r="AB1" s="17"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="25" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="15" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="17" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="25" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="15" t="s">
+      <c r="N2" s="19"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="25" t="s">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="25" t="s">
+      <c r="S2" s="19"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="17"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="15" t="s">
+      <c r="V2" s="19"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="15"/>
+      <c r="Y2" s="26"/>
       <c r="Z2" s="6" t="s">
         <v>1</v>
       </c>
@@ -17224,7 +17202,7 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
@@ -18299,6 +18277,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="R1:Y1"/>
@@ -18307,12 +18291,6 @@
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:T2"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/results/new_pi_matrix.xlsx
+++ b/results/new_pi_matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Education\risc_v\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\00_DESKTOP\Education\risc_v\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49EAD96-6A2E-47D2-9554-72C4EB0A0A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE906AA-55E7-4EF5-89AE-B9717856BEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1C5123AA-3652-4661-A586-32097E39DAF3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C5123AA-3652-4661-A586-32097E39DAF3}"/>
   </bookViews>
   <sheets>
     <sheet name="pi" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="19">
   <si>
     <t>Общая информация</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>Длина строки</t>
+  </si>
+  <si>
+    <t>Mango Pi</t>
+  </si>
+  <si>
+    <t>Погрешность (платы)</t>
   </si>
 </sst>
 </file>
@@ -314,6 +320,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -324,12 +348,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -346,18 +364,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -544,7 +550,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pi!$J$4:$J$11</c:f>
+              <c:f>pi!$M$4:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -587,7 +593,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>pi!$L$1</c:f>
+              <c:f>pi!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -643,7 +649,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pi!$R$4:$R$11</c:f>
+              <c:f>pi!$X$4:$X$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -686,7 +692,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>pi!$T$1</c:f>
+              <c:f>pi!$Z$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -742,7 +748,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pi!$AD$4:$AD$11</c:f>
+              <c:f>pi!$AM$4:$AM$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -785,7 +791,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>pi!$AF$1</c:f>
+              <c:f>pi!$AO$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -841,7 +847,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pi!$AJ$4:$AJ$11</c:f>
+              <c:f>pi!$AS$4:$AS$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3214,7 +3220,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pi!$K$4:$K$11</c:f>
+              <c:f>pi!$N$4:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3257,7 +3263,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>pi!$L$1</c:f>
+              <c:f>pi!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3313,7 +3319,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pi!$S$4:$S$11</c:f>
+              <c:f>pi!$Y$4:$Y$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3356,7 +3362,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>pi!$T$1</c:f>
+              <c:f>pi!$Z$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3412,7 +3418,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pi!$AE$4:$AE$11</c:f>
+              <c:f>pi!$AN$4:$AN$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3836,7 +3842,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>pi!$L$1</c:f>
+              <c:f>pi!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3892,7 +3898,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pi!$L$4:$L$11</c:f>
+              <c:f>pi!$O$4:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -3935,7 +3941,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>pi!$T$1</c:f>
+              <c:f>pi!$Z$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3991,7 +3997,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pi!$V$4:$V$11</c:f>
+              <c:f>pi!$AB$4:$AB$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4034,7 +4040,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>pi!$AF$1</c:f>
+              <c:f>pi!$AO$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4090,7 +4096,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pi!$AH$4:$AH$11</c:f>
+              <c:f>pi!$AQ$4:$AQ$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4525,7 +4531,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>pi!$L$1</c:f>
+              <c:f>pi!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4581,7 +4587,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pi!$O$4:$O$11</c:f>
+              <c:f>pi!$R$4:$R$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4624,7 +4630,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>pi!$T$1</c:f>
+              <c:f>pi!$Z$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4680,7 +4686,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pi!$AA$4:$AA$11</c:f>
+              <c:f>pi!$AG$4:$AG$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -4723,7 +4729,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>pi!$AF$1</c:f>
+              <c:f>pi!$AO$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4779,7 +4785,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pi!$AI$4:$AI$11</c:f>
+              <c:f>pi!$AR$4:$AR$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5244,7 +5250,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>pi!$L$1</c:f>
+              <c:f>pi!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5300,7 +5306,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pi!$M$4:$M$11</c:f>
+              <c:f>pi!$P$4:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5343,7 +5349,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>pi!$T$1</c:f>
+              <c:f>pi!$Z$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5399,7 +5405,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pi!$W$4:$W$11</c:f>
+              <c:f>pi!$AC$4:$AC$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5836,7 +5842,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>pi!$L$1</c:f>
+              <c:f>pi!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5892,7 +5898,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pi!$P$4:$P$11</c:f>
+              <c:f>pi!$S$4:$S$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5935,7 +5941,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>pi!$T$1</c:f>
+              <c:f>pi!$Z$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5991,7 +5997,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>pi!$AB$4:$AB$11</c:f>
+              <c:f>pi!$AH$4:$AH$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -15033,16 +15039,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15069,15 +15075,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>891540</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15105,16 +15111,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>944880</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1059180</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1074420</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15141,16 +15147,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1059180</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15177,16 +15183,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1013460</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1059180</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15732,10 +15738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E820A18-221D-4656-A150-551390AF7477}">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AS27"/>
   <sheetViews>
-    <sheetView topLeftCell="H21" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AJ4" sqref="AJ4:AJ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15746,159 +15752,183 @@
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" customWidth="1"/>
     <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="8" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="16.77734375" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
-    <col min="14" max="14" width="18.77734375" customWidth="1"/>
-    <col min="15" max="16" width="16.109375" customWidth="1"/>
+    <col min="8" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="16.77734375" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
     <col min="17" max="17" width="18.77734375" customWidth="1"/>
-    <col min="18" max="18" width="16.109375" customWidth="1"/>
-    <col min="19" max="19" width="19.5546875" customWidth="1"/>
-    <col min="20" max="20" width="17.88671875" customWidth="1"/>
-    <col min="21" max="21" width="18.21875" customWidth="1"/>
-    <col min="22" max="22" width="17" customWidth="1"/>
-    <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="24" max="24" width="19.5546875" customWidth="1"/>
-    <col min="25" max="25" width="15.88671875" customWidth="1"/>
-    <col min="26" max="26" width="16.77734375" customWidth="1"/>
-    <col min="27" max="27" width="14.109375" customWidth="1"/>
-    <col min="28" max="28" width="14.77734375" customWidth="1"/>
-    <col min="29" max="29" width="19" customWidth="1"/>
-    <col min="30" max="30" width="13.44140625" customWidth="1"/>
-    <col min="31" max="31" width="19.109375" customWidth="1"/>
-    <col min="32" max="32" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.21875" customWidth="1"/>
-    <col min="34" max="34" width="32.5546875" customWidth="1"/>
-    <col min="35" max="35" width="27.33203125" customWidth="1"/>
-    <col min="36" max="36" width="17.21875" customWidth="1"/>
+    <col min="18" max="19" width="16.109375" customWidth="1"/>
+    <col min="20" max="23" width="18.77734375" customWidth="1"/>
+    <col min="24" max="24" width="16.109375" customWidth="1"/>
+    <col min="25" max="25" width="19.5546875" customWidth="1"/>
+    <col min="26" max="26" width="17.88671875" customWidth="1"/>
+    <col min="27" max="27" width="18.21875" customWidth="1"/>
+    <col min="28" max="28" width="17" customWidth="1"/>
+    <col min="29" max="29" width="14" customWidth="1"/>
+    <col min="30" max="30" width="19.5546875" customWidth="1"/>
+    <col min="31" max="31" width="15.88671875" customWidth="1"/>
+    <col min="32" max="32" width="16.77734375" customWidth="1"/>
+    <col min="33" max="33" width="14.109375" customWidth="1"/>
+    <col min="34" max="34" width="14.77734375" customWidth="1"/>
+    <col min="35" max="38" width="19" customWidth="1"/>
+    <col min="39" max="39" width="13.44140625" customWidth="1"/>
+    <col min="40" max="40" width="19.109375" customWidth="1"/>
+    <col min="41" max="41" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="16.21875" customWidth="1"/>
+    <col min="43" max="43" width="32.5546875" customWidth="1"/>
+    <col min="44" max="44" width="27.33203125" customWidth="1"/>
+    <col min="45" max="45" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="28" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="27" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="17" t="s">
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="21" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="26" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="19" t="s">
+      <c r="N2" s="15"/>
+      <c r="O2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21" t="s">
+      <c r="P2" s="17"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="26" t="s">
+      <c r="S2" s="17"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="17"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="26"/>
-      <c r="T2" s="19" t="s">
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="20"/>
-      <c r="V2" s="21" t="s">
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="19"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="26" t="s">
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN2" s="15"/>
+      <c r="AO2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="21" t="s">
+      <c r="AQ2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AB2" s="19"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="26" t="s">
+      <c r="AS2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG2" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -15923,85 +15953,112 @@
       <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" s="8" t="s">
+      <c r="K3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="U3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="Y3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="AB3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AH3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AK3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="1" t="s">
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>100</v>
       </c>
@@ -16031,100 +16088,115 @@
         <f>H4/G4</f>
         <v>15.615653846153847</v>
       </c>
-      <c r="J4" s="4">
-        <f t="shared" ref="J4:J11" si="1">G4/D4</f>
+      <c r="J4">
+        <v>6.1355E-6</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4">
+        <f t="shared" ref="M4:M11" si="1">G4/D4</f>
         <v>2.091713596138375</v>
       </c>
-      <c r="K4" s="4">
+      <c r="N4" s="4">
         <f>I4/F4</f>
         <v>66.839730477855483</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>3.10775E-6</v>
       </c>
-      <c r="M4" s="4">
+      <c r="P4" s="4">
         <v>7.3150000000000001E-7</v>
       </c>
-      <c r="N4" s="4">
-        <f>M4/L4</f>
+      <c r="Q4" s="4">
+        <f>P4/O4</f>
         <v>0.23537929370123079</v>
       </c>
-      <c r="O4" s="4">
+      <c r="R4" s="4">
         <v>6.25025E-6</v>
       </c>
-      <c r="P4" s="3">
+      <c r="S4" s="3">
         <v>1.02502E-4</v>
       </c>
-      <c r="Q4" s="3">
-        <f>P4/O4</f>
+      <c r="T4" s="3">
+        <f>S4/R4</f>
         <v>16.399664013439462</v>
       </c>
-      <c r="R4" s="4">
-        <f t="shared" ref="R4:R11" si="2">O4/L4</f>
+      <c r="U4">
+        <v>6.1352500000000003E-6</v>
+      </c>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="4">
+        <f t="shared" ref="X4:X11" si="2">R4/O4</f>
         <v>2.0111817231115761</v>
       </c>
-      <c r="S4" s="4">
-        <f>Q4/N4</f>
+      <c r="Y4" s="4">
+        <f>T4/Q4</f>
         <v>69.673350427568678</v>
       </c>
-      <c r="T4" s="9">
+      <c r="Z4" s="9">
         <v>8.3333333000000004E-6</v>
       </c>
-      <c r="U4" s="9">
+      <c r="AA4" s="9">
         <v>8.3333333000000004E-6</v>
       </c>
-      <c r="V4" s="4">
+      <c r="AB4" s="4">
         <v>2.9349999999999997E-7</v>
       </c>
-      <c r="W4" s="4">
+      <c r="AC4" s="4">
         <v>4.8100000000000003E-7</v>
       </c>
-      <c r="X4" s="4">
-        <f>W4/V4</f>
+      <c r="AD4" s="4">
+        <f>AC4/AB4</f>
         <v>1.6388415672913119</v>
       </c>
-      <c r="Y4" s="4">
+      <c r="AE4" s="4">
         <v>8.3333333000000004E-6</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="AF4" s="4">
         <v>8.3333333000000004E-6</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AG4" s="4">
         <v>5.93775E-6</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AH4" s="3">
         <v>8.2125249999999994E-5</v>
       </c>
-      <c r="AC4" s="3">
-        <f>AB4/AA4</f>
+      <c r="AI4" s="3">
+        <f>AH4/AG4</f>
         <v>13.831038693107658</v>
       </c>
-      <c r="AD4" s="4">
-        <f>AA4/V4</f>
+      <c r="AJ4">
+        <v>5.7814999999999996E-6</v>
+      </c>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="4">
+        <f>AG4/AB4</f>
         <v>20.230834752981263</v>
       </c>
-      <c r="AE4" s="4">
-        <f>AC4/X4</f>
+      <c r="AN4" s="4">
+        <f>AI4/AD4</f>
         <v>8.4395215310334653</v>
       </c>
-      <c r="AF4" s="13">
+      <c r="AO4" s="13">
         <v>8.3333333000000004E-6</v>
       </c>
-      <c r="AG4" s="10">
+      <c r="AP4" s="10">
         <v>8.3333333000000004E-6</v>
       </c>
-      <c r="AH4" s="4">
+      <c r="AQ4" s="4">
         <v>3.7075000000000001E-6</v>
       </c>
-      <c r="AI4" s="4">
+      <c r="AR4" s="4">
         <v>4.4375000000000003E-6</v>
       </c>
-      <c r="AJ4" s="4">
-        <f t="shared" ref="AJ4:AJ11" si="3">AI4/AH4</f>
+      <c r="AS4" s="4">
+        <f t="shared" ref="AS4:AS11" si="3">AR4/AQ4</f>
         <v>1.1968981793661497</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1000</v>
       </c>
@@ -16154,100 +16226,115 @@
         <f t="shared" ref="I5:I11" si="4">H5/G5</f>
         <v>16.634955367853273</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5">
+        <v>5.9731000000000001E-5</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="4">
         <f t="shared" si="1"/>
         <v>8.3014216056589518</v>
       </c>
-      <c r="K5" s="4">
-        <f t="shared" ref="K5:K11" si="5">I5/F5</f>
+      <c r="N5" s="4">
+        <f t="shared" ref="N5:N11" si="5">I5/F5</f>
         <v>19.271348962631198</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>7.5952499999999998E-6</v>
       </c>
-      <c r="M5" s="4">
+      <c r="P5" s="4">
         <v>6.2894999999999997E-6</v>
       </c>
-      <c r="N5" s="4">
-        <f t="shared" ref="N5:N11" si="6">M5/L5</f>
+      <c r="Q5" s="4">
+        <f t="shared" ref="Q5:Q11" si="6">P5/O5</f>
         <v>0.82808334156216057</v>
       </c>
-      <c r="O5" s="4">
+      <c r="R5" s="4">
         <v>6.0375999999999999E-5</v>
       </c>
-      <c r="P5" s="3">
+      <c r="S5" s="3">
         <v>1.14945825E-3</v>
       </c>
-      <c r="Q5" s="3">
-        <f t="shared" ref="Q5:Q11" si="7">P5/O5</f>
+      <c r="T5" s="3">
+        <f t="shared" ref="T5:T11" si="7">S5/R5</f>
         <v>19.038330628064131</v>
       </c>
-      <c r="R5" s="4">
+      <c r="U5">
+        <v>5.9710000000000003E-5</v>
+      </c>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="4">
         <f t="shared" si="2"/>
         <v>7.9491787630426911</v>
       </c>
-      <c r="S5" s="4">
-        <f t="shared" ref="S5:S11" si="8">Q5/N5</f>
+      <c r="Y5" s="4">
+        <f t="shared" ref="Y5:Y11" si="8">T5/Q5</f>
         <v>22.99083881116211</v>
       </c>
-      <c r="T5" s="9">
+      <c r="Z5" s="9">
         <v>8.3333299999999999E-8</v>
       </c>
-      <c r="U5" s="9">
+      <c r="AA5" s="9">
         <v>8.3333299999999999E-8</v>
       </c>
-      <c r="V5" s="4">
+      <c r="AB5" s="4">
         <v>2.26E-6</v>
       </c>
-      <c r="W5" s="4">
+      <c r="AC5" s="4">
         <v>4.0177499999999998E-6</v>
       </c>
-      <c r="X5" s="4">
-        <f t="shared" ref="X5:X11" si="9">W5/V5</f>
+      <c r="AD5" s="4">
+        <f t="shared" ref="AD5:AD11" si="9">AC5/AB5</f>
         <v>1.7777654867256636</v>
       </c>
-      <c r="Y5" s="4">
+      <c r="AE5" s="4">
         <v>8.3333299999999999E-8</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="AF5" s="4">
         <v>8.3333299999999999E-8</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AG5" s="4">
         <v>5.6313000000000001E-5</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AH5" s="3">
         <v>8.1087525000000005E-4</v>
       </c>
-      <c r="AC5" s="3">
-        <f t="shared" ref="AC5:AC11" si="10">AB5/AA5</f>
+      <c r="AI5" s="3">
+        <f t="shared" ref="AI5:AI11" si="10">AH5/AG5</f>
         <v>14.399432635448299</v>
       </c>
-      <c r="AD5" s="4">
-        <f t="shared" ref="AD5:AD11" si="11">AA5/V5</f>
+      <c r="AJ5">
+        <v>5.5730999999999999E-5</v>
+      </c>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="4">
+        <f t="shared" ref="AM5:AM11" si="11">AG5/AB5</f>
         <v>24.917256637168144</v>
       </c>
-      <c r="AE5" s="4">
-        <f t="shared" ref="AE5:AE11" si="12">AC5/X5</f>
+      <c r="AN5" s="4">
+        <f t="shared" ref="AN5:AN11" si="12">AI5/AD5</f>
         <v>8.0997368567265653</v>
       </c>
-      <c r="AF5" s="13">
+      <c r="AO5" s="13">
         <v>8.3333299999999999E-8</v>
       </c>
-      <c r="AG5" s="10">
+      <c r="AP5" s="10">
         <v>8.3333299999999999E-8</v>
       </c>
-      <c r="AH5" s="4">
+      <c r="AQ5" s="4">
         <v>4.4560000000000002E-6</v>
       </c>
-      <c r="AI5" s="4">
+      <c r="AR5" s="4">
         <v>1.8E-5</v>
       </c>
-      <c r="AJ5" s="4">
+      <c r="AS5" s="4">
         <f t="shared" si="3"/>
         <v>4.0394973070017954</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>10000</v>
       </c>
@@ -16277,100 +16364,115 @@
         <f t="shared" si="4"/>
         <v>16.816988507039671</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6">
+        <v>5.9545374999999995E-4</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="4">
         <f t="shared" si="1"/>
         <v>11.224405362952991</v>
       </c>
-      <c r="K6" s="4">
+      <c r="N6" s="4">
         <f t="shared" si="5"/>
         <v>14.509035067165188</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>5.6271999999999999E-5</v>
       </c>
-      <c r="M6" s="4">
+      <c r="P6" s="4">
         <v>6.1982249999999994E-5</v>
       </c>
-      <c r="N6" s="4">
+      <c r="Q6" s="4">
         <f t="shared" si="6"/>
         <v>1.1014758672163776</v>
       </c>
-      <c r="O6" s="4">
+      <c r="R6" s="4">
         <v>1.2008347500000001E-3</v>
       </c>
-      <c r="P6" s="3">
+      <c r="S6" s="3">
         <v>1.0376875250000001E-2</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="T6" s="3">
         <f t="shared" si="7"/>
         <v>8.6413848783106921</v>
       </c>
-      <c r="R6" s="4">
+      <c r="U6">
+        <v>5.9592300000000005E-4</v>
+      </c>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="4">
         <f t="shared" si="2"/>
         <v>21.339827089849305</v>
       </c>
-      <c r="S6" s="4">
+      <c r="Y6" s="4">
         <f t="shared" si="8"/>
         <v>7.8452784445917869</v>
       </c>
-      <c r="T6" s="9">
+      <c r="Z6" s="9">
         <v>8.3330000000000001E-10</v>
       </c>
-      <c r="U6" s="9">
+      <c r="AA6" s="9">
         <v>8.3330000000000001E-10</v>
       </c>
-      <c r="V6" s="4">
+      <c r="AB6" s="4">
         <v>2.2354999999999999E-5</v>
       </c>
-      <c r="W6" s="4">
+      <c r="AC6" s="4">
         <v>3.9484499999999998E-5</v>
       </c>
-      <c r="X6" s="4">
+      <c r="AD6" s="4">
         <f t="shared" si="9"/>
         <v>1.7662491612614628</v>
       </c>
-      <c r="Y6" s="4">
+      <c r="AE6" s="4">
         <v>8.3330000000000001E-10</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="AF6" s="4">
         <v>8.3330000000000001E-10</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AG6" s="4">
         <v>5.6037999999999997E-4</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AH6" s="3">
         <v>9.3695002499999992E-3</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AI6" s="3">
         <f t="shared" si="10"/>
         <v>16.719904796745066</v>
       </c>
-      <c r="AD6" s="4">
+      <c r="AJ6">
+        <v>5.5576699999999998E-4</v>
+      </c>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="4">
         <f t="shared" si="11"/>
         <v>25.067322746589131</v>
       </c>
-      <c r="AE6" s="4">
+      <c r="AN6" s="4">
         <f t="shared" si="12"/>
         <v>9.4663341749607053</v>
       </c>
-      <c r="AF6" s="13">
+      <c r="AO6" s="13">
         <v>8.3330000000000001E-10</v>
       </c>
-      <c r="AG6" s="10">
+      <c r="AP6" s="10">
         <v>8.3330000000000001E-10</v>
       </c>
-      <c r="AH6" s="4">
+      <c r="AQ6" s="4">
         <v>1.363475E-5</v>
       </c>
-      <c r="AI6" s="4">
+      <c r="AR6" s="4">
         <v>1.5287650000000001E-4</v>
       </c>
-      <c r="AJ6" s="4">
+      <c r="AS6" s="4">
         <f t="shared" si="3"/>
         <v>11.212270118630705</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>100000</v>
       </c>
@@ -16400,100 +16502,115 @@
         <f t="shared" si="4"/>
         <v>12.892818347857109</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7">
+        <v>6.0077522499999998E-3</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4">
         <f t="shared" si="1"/>
         <v>16.480251998006089</v>
       </c>
-      <c r="K7" s="4">
+      <c r="N7" s="4">
         <f t="shared" si="5"/>
         <v>9.8520228976750364</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>4.9949825E-4</v>
       </c>
-      <c r="M7" s="4">
+      <c r="P7" s="4">
         <v>5.679255E-4</v>
       </c>
-      <c r="N7" s="4">
+      <c r="Q7" s="4">
         <f t="shared" si="6"/>
         <v>1.1369919714433434</v>
       </c>
-      <c r="O7" s="4">
+      <c r="R7" s="4">
         <v>8.6337234999999991E-3</v>
       </c>
-      <c r="P7" s="3">
+      <c r="S7" s="3">
         <v>0.10140364574999999</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="T7" s="3">
         <f t="shared" si="7"/>
         <v>11.745065237495734</v>
       </c>
-      <c r="R7" s="4">
+      <c r="U7">
+        <v>6.0672864999999996E-3</v>
+      </c>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="4">
         <f t="shared" si="2"/>
         <v>17.284792289062072</v>
       </c>
-      <c r="S7" s="4">
+      <c r="Y7" s="4">
         <f t="shared" si="8"/>
         <v>10.329945621855249</v>
       </c>
-      <c r="T7" s="9">
+      <c r="Z7" s="9">
         <v>8.2999999999999998E-12</v>
       </c>
-      <c r="U7" s="9">
+      <c r="AA7" s="9">
         <v>8.2999999999999998E-12</v>
       </c>
-      <c r="V7" s="4">
+      <c r="AB7" s="4">
         <v>2.2270375E-4</v>
       </c>
-      <c r="W7" s="4">
+      <c r="AC7" s="4">
         <v>3.9374925000000002E-4</v>
       </c>
-      <c r="X7" s="4">
+      <c r="AD7" s="4">
         <f t="shared" si="9"/>
         <v>1.7680405022367158</v>
       </c>
-      <c r="Y7" s="4">
+      <c r="AE7" s="4">
         <v>8.3999999999999998E-12</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="AF7" s="4">
         <v>8.2999999999999998E-12</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AG7" s="4">
         <v>6.2360562500000001E-3</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AH7" s="3">
         <v>8.0989875249999996E-2</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AI7" s="3">
         <f t="shared" si="10"/>
         <v>12.987354828622657</v>
       </c>
-      <c r="AD7" s="4">
+      <c r="AJ7">
+        <v>5.65506975E-3</v>
+      </c>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="4">
         <f t="shared" si="11"/>
         <v>28.001577207388742</v>
       </c>
-      <c r="AE7" s="4">
+      <c r="AN7" s="4">
         <f t="shared" si="12"/>
         <v>7.345620653029493</v>
       </c>
-      <c r="AF7" s="13">
+      <c r="AO7" s="13">
         <v>8.2999999999999998E-12</v>
       </c>
-      <c r="AG7" s="10">
+      <c r="AP7" s="10">
         <v>8.2999999999999998E-12</v>
       </c>
-      <c r="AH7" s="4">
+      <c r="AQ7" s="4">
         <v>1.153355E-4</v>
       </c>
-      <c r="AI7" s="4">
+      <c r="AR7" s="4">
         <v>3.046909E-3</v>
       </c>
-      <c r="AJ7" s="4">
+      <c r="AS7" s="4">
         <f t="shared" si="3"/>
         <v>26.417789839208222</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1000000</v>
       </c>
@@ -16523,100 +16640,115 @@
         <f t="shared" si="4"/>
         <v>16.7860097907312</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8">
+        <v>6.0058980749999998E-2</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="4">
         <f t="shared" si="1"/>
         <v>14.351427210060862</v>
       </c>
-      <c r="K8" s="4">
+      <c r="N8" s="4">
         <f t="shared" si="5"/>
         <v>12.77763057817862</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>4.18259475E-3</v>
       </c>
-      <c r="M8" s="4">
+      <c r="P8" s="4">
         <v>5.5176407500000003E-3</v>
       </c>
-      <c r="N8" s="4">
+      <c r="Q8" s="4">
         <f t="shared" si="6"/>
         <v>1.3191908563458128</v>
       </c>
-      <c r="O8" s="4">
+      <c r="R8" s="4">
         <v>6.010324425E-2</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>1.01041520375</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <f t="shared" si="7"/>
         <v>16.811325517590511</v>
       </c>
-      <c r="R8" s="4">
+      <c r="U8">
+        <v>6.01157155E-2</v>
+      </c>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="4">
         <f t="shared" si="2"/>
         <v>14.369846433245774</v>
       </c>
-      <c r="S8" s="4">
+      <c r="Y8" s="4">
         <f t="shared" si="8"/>
         <v>12.743664373294889</v>
       </c>
-      <c r="T8" s="9">
+      <c r="Z8" s="9">
         <v>2.0000000000000001E-13</v>
       </c>
-      <c r="U8" s="9">
+      <c r="AA8" s="9">
         <v>1E-13</v>
       </c>
-      <c r="V8" s="4">
+      <c r="AB8" s="4">
         <v>2.2259315000000002E-3</v>
       </c>
-      <c r="W8" s="4">
+      <c r="AC8" s="4">
         <v>3.9488709999999996E-3</v>
       </c>
-      <c r="X8" s="4">
+      <c r="AD8" s="4">
         <f t="shared" si="9"/>
         <v>1.7740307821691725</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="AE8" s="4">
         <v>0</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="AF8" s="4">
         <v>1E-13</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="AG8" s="4">
         <v>5.6084693749999998E-2</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AH8" s="3">
         <v>0.81167356275000002</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AI8" s="3">
         <f t="shared" si="10"/>
         <v>14.472283050489155</v>
       </c>
-      <c r="AD8" s="4">
+      <c r="AJ8">
+        <v>5.6054818749999999E-2</v>
+      </c>
+      <c r="AK8" s="3"/>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="4">
         <f t="shared" si="11"/>
         <v>25.196055561458198</v>
       </c>
-      <c r="AE8" s="4">
+      <c r="AN8" s="4">
         <f t="shared" si="12"/>
         <v>8.1578534013898913</v>
       </c>
-      <c r="AF8" s="13">
+      <c r="AO8" s="13">
         <v>1E-13</v>
       </c>
-      <c r="AG8" s="10">
+      <c r="AP8" s="10">
         <v>1E-13</v>
       </c>
-      <c r="AH8" s="4">
+      <c r="AQ8" s="4">
         <v>1.1253382499999999E-3</v>
       </c>
-      <c r="AI8" s="4">
+      <c r="AR8" s="4">
         <v>1.510010625E-2</v>
       </c>
-      <c r="AJ8" s="4">
+      <c r="AS8" s="4">
         <f t="shared" si="3"/>
         <v>13.418282236474235</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>10000000</v>
       </c>
@@ -16646,100 +16778,115 @@
         <f t="shared" si="4"/>
         <v>16.695035732449799</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9">
+        <v>0.60203587224999999</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4">
         <f t="shared" si="1"/>
         <v>24.943463574788403</v>
       </c>
-      <c r="K9" s="4">
+      <c r="N9" s="4">
         <f t="shared" si="5"/>
         <v>13.766743938080976</v>
       </c>
-      <c r="L9">
+      <c r="O9">
         <v>2.3925940999999999E-2</v>
       </c>
-      <c r="M9" s="4">
+      <c r="P9" s="4">
         <v>2.9274677249999999E-2</v>
       </c>
-      <c r="N9" s="4">
+      <c r="Q9" s="4">
         <f t="shared" si="6"/>
         <v>1.2235538510272177</v>
       </c>
-      <c r="O9" s="4">
+      <c r="R9" s="4">
         <v>0.60173334874999995</v>
       </c>
-      <c r="P9" s="3">
+      <c r="S9" s="3">
         <v>10.114371759999999</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="T9" s="3">
         <f t="shared" si="7"/>
         <v>16.808727289273413</v>
       </c>
-      <c r="R9" s="4">
+      <c r="U9">
+        <v>0.60127566499999996</v>
+      </c>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="4">
         <f t="shared" si="2"/>
         <v>25.149830000416703</v>
       </c>
-      <c r="S9" s="4">
+      <c r="Y9" s="4">
         <f t="shared" si="8"/>
         <v>13.737627710592287</v>
       </c>
-      <c r="T9" s="9">
+      <c r="Z9" s="9">
         <v>1E-13</v>
       </c>
-      <c r="U9" s="9">
+      <c r="AA9" s="9">
         <v>0</v>
       </c>
-      <c r="V9" s="4">
+      <c r="AB9" s="4">
         <v>1.5621757999999999E-2</v>
       </c>
-      <c r="W9" s="4">
+      <c r="AC9" s="4">
         <v>2.4076813249999999E-2</v>
       </c>
-      <c r="X9" s="4">
+      <c r="AD9" s="4">
         <f t="shared" si="9"/>
         <v>1.5412358359411278</v>
       </c>
-      <c r="Y9" s="4">
+      <c r="AE9" s="4">
         <v>1E-13</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="AF9" s="4">
         <v>0</v>
       </c>
-      <c r="AA9" s="4">
+      <c r="AG9" s="4">
         <v>0.56100979350000002</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AH9" s="3">
         <v>8.0775161877499997</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AI9" s="3">
         <f t="shared" si="10"/>
         <v>14.398173225027666</v>
       </c>
-      <c r="AD9" s="4">
+      <c r="AJ9">
+        <v>0.56139792624999996</v>
+      </c>
+      <c r="AK9" s="3"/>
+      <c r="AL9" s="3"/>
+      <c r="AM9" s="4">
         <f t="shared" si="11"/>
         <v>35.912078109262737</v>
       </c>
-      <c r="AE9" s="4">
+      <c r="AN9" s="4">
         <f t="shared" si="12"/>
         <v>9.3419662904708431</v>
       </c>
-      <c r="AF9" s="13">
+      <c r="AO9" s="13">
         <v>0</v>
       </c>
-      <c r="AG9" s="10">
+      <c r="AP9" s="10">
         <v>1E-13</v>
       </c>
-      <c r="AH9" s="4">
+      <c r="AQ9" s="4">
         <v>1.06350695E-2</v>
       </c>
-      <c r="AI9" s="4">
+      <c r="AR9" s="4">
         <v>0.15170913275</v>
       </c>
-      <c r="AJ9" s="4">
+      <c r="AS9" s="4">
         <f t="shared" si="3"/>
         <v>14.264987431440858</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>100000000</v>
       </c>
@@ -16769,100 +16916,115 @@
         <f t="shared" si="4"/>
         <v>17.286357435201534</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10">
+        <v>6.0254202530000001</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="4">
         <f t="shared" si="1"/>
         <v>25.692324571908408</v>
       </c>
-      <c r="K10" s="4">
+      <c r="N10" s="4">
         <f t="shared" si="5"/>
         <v>13.784605469255435</v>
       </c>
-      <c r="L10">
+      <c r="O10">
         <v>0.23393613599999999</v>
       </c>
-      <c r="M10" s="4">
+      <c r="P10" s="4">
         <v>0.29241278500000001</v>
       </c>
-      <c r="N10" s="4">
+      <c r="Q10" s="4">
         <f t="shared" si="6"/>
         <v>1.2499684315551831</v>
       </c>
-      <c r="O10" s="4">
+      <c r="R10" s="4">
         <v>6.0102470415000004</v>
       </c>
-      <c r="P10" s="3">
+      <c r="S10" s="3">
         <v>102.2640237375</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="T10" s="3">
         <f t="shared" si="7"/>
         <v>17.014945148074574</v>
       </c>
-      <c r="R10" s="4">
+      <c r="U10">
+        <v>6.0139681339999997</v>
+      </c>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="4">
         <f t="shared" si="2"/>
         <v>25.691828309500679</v>
       </c>
-      <c r="S10" s="4">
+      <c r="Y10" s="4">
         <f t="shared" si="8"/>
         <v>13.61229989377008</v>
       </c>
-      <c r="T10" s="9">
+      <c r="Z10" s="9">
         <v>2.0000000000000001E-13</v>
       </c>
-      <c r="U10" s="9">
+      <c r="AA10" s="9">
         <v>0</v>
       </c>
-      <c r="V10" s="4">
+      <c r="AB10" s="4">
         <v>0.12996826175000001</v>
       </c>
-      <c r="W10" s="4">
+      <c r="AC10" s="4">
         <v>0.2299231605</v>
       </c>
-      <c r="X10" s="4">
+      <c r="AD10" s="4">
         <f t="shared" si="9"/>
         <v>1.7690715979741876</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="AE10" s="4">
         <v>5.9999999999999997E-13</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="AF10" s="4">
         <v>0</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="AG10" s="4">
         <v>5.6178906057500004</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AH10" s="3">
         <v>80.333796812749995</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AI10" s="3">
         <f t="shared" si="10"/>
         <v>14.299637079178273</v>
       </c>
-      <c r="AD10" s="4">
+      <c r="AJ10">
+        <v>5.6136189744999996</v>
+      </c>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="4">
         <f t="shared" si="11"/>
         <v>43.225096112743849</v>
       </c>
-      <c r="AE10" s="4">
+      <c r="AN10" s="4">
         <f t="shared" si="12"/>
         <v>8.083130776364948</v>
       </c>
-      <c r="AF10" s="13">
+      <c r="AO10" s="13">
         <v>0</v>
       </c>
-      <c r="AG10" s="10">
+      <c r="AP10" s="10">
         <v>1E-13</v>
       </c>
-      <c r="AH10" s="4">
+      <c r="AQ10" s="4">
         <v>5.6411853249999998E-2</v>
       </c>
-      <c r="AI10" s="4">
+      <c r="AR10" s="4">
         <v>1.51150352875</v>
       </c>
-      <c r="AJ10" s="4">
+      <c r="AS10" s="4">
         <f t="shared" si="3"/>
         <v>26.794076806012399</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>1000000000</v>
       </c>
@@ -16892,181 +17054,263 @@
         <f t="shared" si="4"/>
         <v>16.806762546371491</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11">
+        <v>60.143318790750001</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4">
         <f t="shared" si="1"/>
         <v>26.996627982810544</v>
       </c>
-      <c r="K11" s="4">
+      <c r="N11" s="4">
         <f t="shared" si="5"/>
         <v>13.998065892754786</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>2.3397044062500001</v>
       </c>
-      <c r="M11" s="4">
+      <c r="P11" s="4">
         <v>2.6674873037500002</v>
       </c>
-      <c r="N11" s="4">
+      <c r="Q11" s="4">
         <f t="shared" si="6"/>
         <v>1.1400958585299925</v>
       </c>
-      <c r="O11" s="4">
+      <c r="R11" s="4">
         <v>60.082466490000002</v>
       </c>
-      <c r="P11" s="3">
+      <c r="S11" s="3">
         <v>1020.80920222725</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="T11" s="3">
         <f t="shared" si="7"/>
         <v>16.990134757486217</v>
       </c>
-      <c r="R11" s="4">
+      <c r="U11">
+        <v>60.157276500750001</v>
+      </c>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="4">
         <f t="shared" si="2"/>
         <v>25.679511620999239</v>
       </c>
-      <c r="S11" s="4">
+      <c r="Y11" s="4">
         <f t="shared" si="8"/>
         <v>14.902373892834607</v>
       </c>
-      <c r="T11" s="9">
+      <c r="Z11" s="9">
         <v>1E-13</v>
       </c>
-      <c r="U11" s="9">
+      <c r="AA11" s="9">
         <v>0</v>
       </c>
-      <c r="V11" s="4">
+      <c r="AB11" s="4">
         <v>1.3005261925</v>
       </c>
-      <c r="W11" s="4">
+      <c r="AC11" s="4">
         <v>2.299802997</v>
       </c>
-      <c r="X11" s="4">
+      <c r="AD11" s="4">
         <f t="shared" si="9"/>
         <v>1.7683634595463944</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="AE11" s="4">
         <v>2.0000000000000001E-13</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="AF11" s="4">
         <v>0</v>
       </c>
-      <c r="AA11" s="4">
+      <c r="AG11" s="4">
         <v>56.078812177000003</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AH11" s="3">
         <v>802.13575950024995</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AI11" s="3">
         <f t="shared" si="10"/>
         <v>14.303722357179947</v>
       </c>
-      <c r="AD11" s="4">
+      <c r="AJ11">
+        <v>56.151154855249999</v>
+      </c>
+      <c r="AK11" s="3"/>
+      <c r="AL11" s="3"/>
+      <c r="AM11" s="4">
         <f t="shared" si="11"/>
         <v>43.12009438979446</v>
       </c>
-      <c r="AE11" s="4">
+      <c r="AN11" s="4">
         <f t="shared" si="12"/>
         <v>8.0886778563322128</v>
       </c>
-      <c r="AF11" s="13">
+      <c r="AO11" s="13">
         <v>0</v>
       </c>
-      <c r="AG11" s="10">
+      <c r="AP11" s="10">
         <v>0</v>
       </c>
-      <c r="AH11" s="4">
+      <c r="AQ11" s="4">
         <v>0.56460486200000004</v>
       </c>
-      <c r="AI11" s="4">
+      <c r="AR11" s="4">
         <v>15.055442005250001</v>
       </c>
-      <c r="AJ11" s="4">
+      <c r="AS11" s="4">
         <f t="shared" si="3"/>
         <v>26.665448738643697</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="J12" s="4">
-        <f>AVERAGE(J4:J11)</f>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="M12" s="4">
+        <f>AVERAGE(M4:M11)</f>
         <v>16.260204487790578</v>
       </c>
-      <c r="K12" s="4">
-        <f>AVERAGE(K4:K11)</f>
+      <c r="N12" s="4">
+        <f>AVERAGE(N4:N11)</f>
         <v>20.599897910449592</v>
       </c>
-      <c r="R12" s="4">
-        <f>AVERAGE(R4:R11)</f>
+      <c r="X12" s="4">
+        <f>AVERAGE(X4:X11)</f>
         <v>17.434499528653507</v>
       </c>
-      <c r="S12" s="4">
-        <f>AVERAGE(S4:S11)</f>
+      <c r="Y12" s="4">
+        <f>AVERAGE(Y4:Y11)</f>
         <v>20.729422396958711</v>
       </c>
-      <c r="AD12" s="4">
-        <f>AVERAGE(AD4:AD11)</f>
+      <c r="AM12" s="4">
+        <f>AVERAGE(AM4:AM11)</f>
         <v>30.708789439673311</v>
       </c>
-      <c r="AE12" s="4">
-        <f>AVERAGE(AE4:AE11)</f>
+      <c r="AN12" s="4">
+        <f>AVERAGE(AN4:AN11)</f>
         <v>8.3778551925385152</v>
       </c>
-      <c r="AJ12" s="4">
-        <f>AVERAGE(AJ4:AJ11)</f>
+      <c r="AS12" s="4">
+        <f>AVERAGE(AS4:AS11)</f>
         <v>15.501156332097256</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="J13" s="4">
-        <f>MAX(J4:J11)-MIN(J4:J11)</f>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="M13" s="4">
+        <f>MAX(M4:M11)-MIN(M4:M11)</f>
         <v>24.904914386672168</v>
       </c>
-      <c r="K13" s="4">
-        <f>MAX(K4:K11)-MIN(K4:K11)</f>
+      <c r="N13" s="4">
+        <f>MAX(N4:N11)-MIN(N4:N11)</f>
         <v>56.987707580180448</v>
       </c>
-      <c r="R13" s="4">
-        <f>MAX(R4:R11)-MIN(R4:R11)</f>
+      <c r="X13" s="4">
+        <f>MAX(X4:X11)-MIN(X4:X11)</f>
         <v>23.680646586389102</v>
       </c>
-      <c r="S13" s="4">
-        <f>MAX(S4:S11)-MIN(S4:S11)</f>
+      <c r="Y13" s="4">
+        <f>MAX(Y4:Y11)-MIN(Y4:Y11)</f>
         <v>61.828071982976894</v>
       </c>
-      <c r="AD13" s="4">
-        <f>MAX(AD4:AD11)-MIN(AD4:AD11)</f>
+      <c r="AM13" s="4">
+        <f>MAX(AM4:AM11)-MIN(AM4:AM11)</f>
         <v>22.994261359762586</v>
       </c>
-      <c r="AE13" s="4">
-        <f>MAX(AE4:AE11)-MIN(AE4:AE11)</f>
+      <c r="AN13" s="4">
+        <f>MAX(AN4:AN11)-MIN(AN4:AN11)</f>
         <v>2.1207135219312123</v>
       </c>
-      <c r="AJ13" s="4">
-        <f>MAX(AJ4:AJ11)-MIN(AJ4:AJ11)</f>
+      <c r="AS13" s="4">
+        <f>MAX(AS4:AS11)-MIN(AS4:AS11)</f>
         <v>25.597178626646247</v>
+      </c>
+    </row>
+    <row r="20" spans="26:28" x14ac:dyDescent="0.3">
+      <c r="Z20">
+        <v>8.3333333000000004E-6</v>
+      </c>
+      <c r="AB20">
+        <v>5.7814999999999996E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="26:28" x14ac:dyDescent="0.3">
+      <c r="Z21">
+        <v>8.3333299999999999E-8</v>
+      </c>
+      <c r="AB21">
+        <v>5.5730999999999999E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="26:28" x14ac:dyDescent="0.3">
+      <c r="Z22">
+        <v>8.3330000000000001E-10</v>
+      </c>
+      <c r="AB22">
+        <v>5.5576699999999998E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="26:28" x14ac:dyDescent="0.3">
+      <c r="Z23">
+        <v>8.3999999999999998E-12</v>
+      </c>
+      <c r="AB23">
+        <v>5.65506975E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="26:28" x14ac:dyDescent="0.3">
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>5.6054818749999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="26:28" x14ac:dyDescent="0.3">
+      <c r="Z25">
+        <v>1E-13</v>
+      </c>
+      <c r="AB25">
+        <v>0.56139792624999996</v>
+      </c>
+    </row>
+    <row r="26" spans="26:28" x14ac:dyDescent="0.3">
+      <c r="Z26">
+        <v>5.9999999999999997E-13</v>
+      </c>
+      <c r="AB26">
+        <v>5.6136189744999996</v>
+      </c>
+    </row>
+    <row r="27" spans="26:28" x14ac:dyDescent="0.3">
+      <c r="Z27">
+        <v>2.0000000000000001E-13</v>
+      </c>
+      <c r="AB27">
+        <v>56.151154855249999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="T1:AE1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AF1:AJ1"/>
+  <mergeCells count="23">
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AO1:AS1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AP2:AP3"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="D1:N1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="Z1:AN1"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="O1:Y1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17078,8 +17322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1CE195-C062-47CA-8580-D3479DE98BDB}">
   <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H26" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17109,26 +17353,26 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="28" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
       <c r="R1" s="30" t="s">
         <v>7</v>
       </c>
@@ -17143,54 +17387,54 @@
         <v>11</v>
       </c>
       <c r="AA1" s="34"/>
-      <c r="AB1" s="17"/>
+      <c r="AB1" s="23"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="21" t="s">
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="19"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="26" t="s">
+      <c r="N2" s="17"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="21" t="s">
+      <c r="Q2" s="15"/>
+      <c r="R2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="21" t="s">
+      <c r="S2" s="17"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="19"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="26" t="s">
+      <c r="V2" s="17"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="26"/>
+      <c r="Y2" s="15"/>
       <c r="Z2" s="6" t="s">
         <v>1</v>
       </c>
@@ -17202,7 +17446,7 @@
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
@@ -17310,7 +17554,7 @@
         <v>17.744977114352718</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H11" si="1">E4/B4</f>
+        <f>E4/B4</f>
         <v>4.7300725806051522</v>
       </c>
       <c r="I4" s="4">
@@ -17324,7 +17568,7 @@
         <v>5.95985E-3</v>
       </c>
       <c r="L4" s="4">
-        <f t="shared" ref="L4:L11" si="2">K4/J4</f>
+        <f t="shared" ref="L4:L11" si="1">K4/J4</f>
         <v>3.2176619534291095</v>
       </c>
       <c r="M4" s="4">
@@ -17338,7 +17582,7 @@
         <v>28.508556060802036</v>
       </c>
       <c r="P4" s="4">
-        <f t="shared" ref="P4:P11" si="3">M4/J4</f>
+        <f>M4/J4</f>
         <v>3.2140122986886079</v>
       </c>
       <c r="Q4" s="4">
@@ -17366,11 +17610,11 @@
         <v>28.571812879459145</v>
       </c>
       <c r="X4" s="4">
-        <f t="shared" ref="X4:X11" si="4">U4/R4</f>
+        <f t="shared" ref="X4:X11" si="2">U4/R4</f>
         <v>6.5894924605856477</v>
       </c>
       <c r="Y4" s="4">
-        <f t="shared" ref="Y4:Y11" si="5">W4/T4</f>
+        <f t="shared" ref="Y4:Y11" si="3">W4/T4</f>
         <v>7.4244581317446317</v>
       </c>
       <c r="Z4" s="4">
@@ -17380,7 +17624,7 @@
         <v>2.6198200000000001E-3</v>
       </c>
       <c r="AB4" s="4">
-        <f t="shared" ref="AB4:AB11" si="6">AA4/Z4</f>
+        <f t="shared" ref="AB4:AB11" si="4">AA4/Z4</f>
         <v>5.4071089793070994</v>
       </c>
     </row>
@@ -17395,7 +17639,7 @@
         <v>2.8602499999999999E-2</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:D13" si="7">C5/B5</f>
+        <f t="shared" ref="D5:D13" si="5">C5/B5</f>
         <v>2.7092114610466496</v>
       </c>
       <c r="E5" s="4">
@@ -17409,11 +17653,11 @@
         <v>14.13445526000303</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="1"/>
+        <f>E5/B5</f>
         <v>9.2598058252427187</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" ref="I5:I11" si="8">G5/D5</f>
+        <f>G5/D5</f>
         <v>5.2171842114319364</v>
       </c>
       <c r="J5" s="4">
@@ -17423,7 +17667,7 @@
         <v>1.7787399999999998E-2</v>
       </c>
       <c r="L5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.6993302953006026</v>
       </c>
       <c r="M5" s="4">
@@ -17433,15 +17677,15 @@
         <v>1.3921399999999999</v>
       </c>
       <c r="O5" s="4">
-        <f t="shared" ref="O5:O13" si="9">N5/M5</f>
+        <f t="shared" ref="O5:O13" si="6">N5/M5</f>
         <v>24.034694874667874</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" si="3"/>
+        <f>M5/J5</f>
         <v>5.533623761619519</v>
       </c>
       <c r="Q5" s="4">
-        <f t="shared" ref="Q5:Q11" si="10">O5/L5</f>
+        <f>O5/L5</f>
         <v>14.143627605024403</v>
       </c>
       <c r="R5" s="4">
@@ -17451,7 +17695,7 @@
         <v>2.7380700000000001E-2</v>
       </c>
       <c r="T5" s="4">
-        <f t="shared" ref="T5:T13" si="11">S5/R5</f>
+        <f t="shared" ref="T5:T13" si="7">S5/R5</f>
         <v>3.5322916478532007</v>
       </c>
       <c r="U5" s="4">
@@ -17461,15 +17705,15 @@
         <v>1.3868400000000001</v>
       </c>
       <c r="W5" s="4">
-        <f t="shared" ref="W5:W13" si="12">V5/U5</f>
+        <f t="shared" ref="W5:W13" si="8">V5/U5</f>
         <v>23.5629928283441</v>
       </c>
       <c r="X5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7.5929041196975042</v>
       </c>
       <c r="Y5" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.6707381998496178</v>
       </c>
       <c r="Z5" s="4">
@@ -17479,7 +17723,7 @@
         <v>2.5305500000000002E-2</v>
       </c>
       <c r="AB5" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>6.5207420176923661</v>
       </c>
     </row>
@@ -17494,7 +17738,7 @@
         <v>9.6381499999999995E-2</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4.2949226409040673</v>
       </c>
       <c r="E6" s="4">
@@ -17508,11 +17752,11 @@
         <v>12.886981279272083</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="1"/>
+        <f>E6/B6</f>
         <v>16.621911874799473</v>
       </c>
       <c r="I6" s="4">
-        <f t="shared" si="8"/>
+        <f>G6/D6</f>
         <v>3.000515342590528</v>
       </c>
       <c r="J6" s="4">
@@ -17522,7 +17766,7 @@
         <v>5.95148E-2</v>
       </c>
       <c r="L6" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.819203713791715</v>
       </c>
       <c r="M6" s="4">
@@ -17532,15 +17776,15 @@
         <v>4.7998000000000003</v>
       </c>
       <c r="O6" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>20.995030968961053</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" si="3"/>
+        <f>M6/J6</f>
         <v>10.829492432675684</v>
       </c>
       <c r="Q6" s="4">
-        <f t="shared" si="10"/>
+        <f>O6/L6</f>
         <v>7.4471493018585688</v>
       </c>
       <c r="R6" s="4">
@@ -17550,7 +17794,7 @@
         <v>9.1636599999999999E-2</v>
       </c>
       <c r="T6" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>7.0539612648951566</v>
       </c>
       <c r="U6" s="4">
@@ -17560,15 +17804,15 @@
         <v>4.8210199999999999</v>
       </c>
       <c r="W6" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>21.109364532386387</v>
       </c>
       <c r="X6" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>17.580364565692644</v>
       </c>
       <c r="Y6" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.9925546426572467</v>
       </c>
       <c r="Z6" s="4">
@@ -17578,7 +17822,7 @@
         <v>9.5278699999999994E-2</v>
       </c>
       <c r="AB6" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>7.1430274314588376</v>
       </c>
     </row>
@@ -17593,7 +17837,7 @@
         <v>0.23596500000000001</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4.3274891338236108</v>
       </c>
       <c r="E7" s="4">
@@ -17607,11 +17851,11 @@
         <v>7.7402595813165096</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="1"/>
+        <f>E7/B7</f>
         <v>29.969923157334897</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="8"/>
+        <f>G7/D7</f>
         <v>1.7886260004256787</v>
       </c>
       <c r="J7" s="4">
@@ -17621,7 +17865,7 @@
         <v>0.147178</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.8860129027197678</v>
       </c>
       <c r="M7" s="4">
@@ -17631,15 +17875,15 @@
         <v>12.6776</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>9.5677111634365755</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" si="3"/>
+        <f>M7/J7</f>
         <v>25.982704864992058</v>
       </c>
       <c r="Q7" s="4">
-        <f t="shared" si="10"/>
+        <f>O7/L7</f>
         <v>3.3152004117583811</v>
       </c>
       <c r="R7" s="4">
@@ -17649,7 +17893,7 @@
         <v>0.22106300000000001</v>
       </c>
       <c r="T7" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>5.8886535874588786</v>
       </c>
       <c r="U7" s="4">
@@ -17659,15 +17903,15 @@
         <v>12.551399999999999</v>
       </c>
       <c r="W7" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>9.9273132805517541</v>
       </c>
       <c r="X7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>33.679093245961027</v>
       </c>
       <c r="Y7" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.6858375404683419</v>
       </c>
       <c r="Z7" s="4">
@@ -17677,7 +17921,7 @@
         <v>0.44961200000000001</v>
       </c>
       <c r="AB7" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>22.703319564931984</v>
       </c>
     </row>
@@ -17692,7 +17936,7 @@
         <v>0.60554699999999995</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>5.7356501477608539</v>
       </c>
       <c r="E8" s="4">
@@ -17706,11 +17950,11 @@
         <v>8.5787755290303664</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" si="1"/>
+        <f>E8/B8</f>
         <v>28.749621126013487</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" si="8"/>
+        <f>G8/D8</f>
         <v>1.4956936542545998</v>
       </c>
       <c r="J8" s="4">
@@ -17720,7 +17964,7 @@
         <v>0.43921500000000002</v>
       </c>
       <c r="L8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.3691681753974096</v>
       </c>
       <c r="M8" s="4">
@@ -17730,15 +17974,15 @@
         <v>26.2273</v>
       </c>
       <c r="O8" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>10.259907913421403</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" si="3"/>
+        <f>M8/J8</f>
         <v>25.429142709348827</v>
       </c>
       <c r="Q8" s="4">
-        <f t="shared" si="10"/>
+        <f>O8/L8</f>
         <v>2.3482520016497612</v>
       </c>
       <c r="R8" s="4">
@@ -17748,7 +17992,7 @@
         <v>0.62780100000000005</v>
       </c>
       <c r="T8" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>8.2798118251561856</v>
       </c>
       <c r="U8" s="4">
@@ -17758,15 +18002,15 @@
         <v>26.135300000000001</v>
       </c>
       <c r="W8" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>11.491883002673422</v>
       </c>
       <c r="X8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>29.994025567406236</v>
       </c>
       <c r="Y8" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.3879401181266153</v>
       </c>
       <c r="Z8" s="4">
@@ -17776,7 +18020,7 @@
         <v>1.0150300000000001</v>
       </c>
       <c r="AB8" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>25.852535383816029</v>
       </c>
     </row>
@@ -17791,7 +18035,7 @@
         <v>0.873672</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4.704546923126629</v>
       </c>
       <c r="E9" s="4">
@@ -17805,11 +18049,11 @@
         <v>6.0998187739664864</v>
       </c>
       <c r="H9" s="4">
-        <f t="shared" si="1"/>
+        <f>E9/B9</f>
         <v>41.004157063777541</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" si="8"/>
+        <f>G9/D9</f>
         <v>1.2965794312691357</v>
       </c>
       <c r="J9" s="4">
@@ -17819,7 +18063,7 @@
         <v>0.57806599999999997</v>
       </c>
       <c r="L9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.2919851023360174</v>
       </c>
       <c r="M9" s="4">
@@ -17829,15 +18073,15 @@
         <v>46.599499999999999</v>
       </c>
       <c r="O9" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>7.2581047109654619</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="3"/>
+        <f>M9/J9</f>
         <v>36.562717115229106</v>
       </c>
       <c r="Q9" s="4">
-        <f t="shared" si="10"/>
+        <f>O9/L9</f>
         <v>2.2047805458825001</v>
       </c>
       <c r="R9" s="4">
@@ -17847,7 +18091,7 @@
         <v>0.854904</v>
       </c>
       <c r="T9" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>6.5455714810731349</v>
       </c>
       <c r="U9" s="4">
@@ -17857,15 +18101,15 @@
         <v>46.6614</v>
       </c>
       <c r="W9" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>7.1833405688000518</v>
       </c>
       <c r="X9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>49.734932010290336</v>
       </c>
       <c r="Y9" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.097435203262398</v>
       </c>
       <c r="Z9" s="4">
@@ -17875,7 +18119,7 @@
         <v>2.0329899999999999</v>
       </c>
       <c r="AB9" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>29.778847393276067</v>
       </c>
     </row>
@@ -17890,7 +18134,7 @@
         <v>1.4330700000000001</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4.6406655289549787</v>
       </c>
       <c r="E10" s="4">
@@ -17904,11 +18148,11 @@
         <v>5.3204011688733361</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="1"/>
+        <f>E10/B10</f>
         <v>44.88078314286917</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="8"/>
+        <f>G10/D10</f>
         <v>1.1464737408195469</v>
       </c>
       <c r="J10" s="4">
@@ -17918,7 +18162,7 @@
         <v>1.0108600000000001</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.4142947373398589</v>
       </c>
       <c r="M10" s="4">
@@ -17928,15 +18172,15 @@
         <v>73.997299999999996</v>
       </c>
       <c r="O10" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>6.2127264789347301</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="3"/>
+        <f>M10/J10</f>
         <v>40.229407532754408</v>
       </c>
       <c r="Q10" s="4">
-        <f t="shared" si="10"/>
+        <f>O10/L10</f>
         <v>1.8196221934182466</v>
       </c>
       <c r="R10" s="4">
@@ -17946,7 +18190,7 @@
         <v>1.21163</v>
       </c>
       <c r="T10" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>5.3392941342370017</v>
       </c>
       <c r="U10" s="4">
@@ -17956,15 +18200,15 @@
         <v>74.131500000000003</v>
       </c>
       <c r="W10" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>6.1995818523938953</v>
       </c>
       <c r="X10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>52.693156830170054</v>
       </c>
       <c r="Y10" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.1611238670371231</v>
       </c>
       <c r="Z10" s="4">
@@ -17974,7 +18218,7 @@
         <v>3.7886600000000001</v>
       </c>
       <c r="AB10" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>34.722988516281589</v>
       </c>
     </row>
@@ -17989,7 +18233,7 @@
         <v>2.6095600000000001</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4.5891087890096056</v>
       </c>
       <c r="E11" s="4">
@@ -18003,11 +18247,11 @@
         <v>5.0471788682557541</v>
       </c>
       <c r="H11" s="4">
-        <f t="shared" si="1"/>
+        <f>E11/B11</f>
         <v>38.467436453867279</v>
       </c>
       <c r="I11" s="4">
-        <f t="shared" si="8"/>
+        <f>G11/D11</f>
         <v>1.0998167836733734</v>
       </c>
       <c r="J11" s="4">
@@ -18017,7 +18261,7 @@
         <v>1.9441900000000001</v>
       </c>
       <c r="L11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.5065895436648575</v>
       </c>
       <c r="M11" s="4">
@@ -18027,15 +18271,15 @@
         <v>111.633</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>5.8736898598307858</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="3"/>
+        <f>M11/J11</f>
         <v>34.278973881707458</v>
       </c>
       <c r="Q11" s="4">
-        <f t="shared" si="10"/>
+        <f>O11/L11</f>
         <v>1.67504345367208</v>
       </c>
       <c r="R11" s="4">
@@ -18045,7 +18289,7 @@
         <v>2.2316500000000001</v>
       </c>
       <c r="T11" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>5.1076622371956555</v>
       </c>
       <c r="U11" s="4">
@@ -18055,15 +18299,15 @@
         <v>111.40600000000001</v>
       </c>
       <c r="W11" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>5.9024922646547706</v>
       </c>
       <c r="X11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>43.198557179542348</v>
       </c>
       <c r="Y11" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.1556152287578658</v>
       </c>
       <c r="Z11" s="4">
@@ -18073,7 +18317,7 @@
         <v>5.8071099999999998</v>
       </c>
       <c r="AB11" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>25.006933080699334</v>
       </c>
     </row>
@@ -18088,7 +18332,7 @@
         <v>3.1626300000000001</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3.8404595975970945</v>
       </c>
       <c r="E12" s="4">
@@ -18098,7 +18342,7 @@
         <v>157.53899999999999</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" ref="G12:G13" si="13">F12/E12</f>
+        <f t="shared" ref="G12:G13" si="9">F12/E12</f>
         <v>4.7641930245287636</v>
       </c>
       <c r="H12" s="4">
@@ -18116,7 +18360,7 @@
         <v>2.22695</v>
       </c>
       <c r="L12" s="4">
-        <f t="shared" ref="L12:L13" si="14">K12/J12</f>
+        <f t="shared" ref="L12:L13" si="10">K12/J12</f>
         <v>2.8045251216538882</v>
       </c>
       <c r="M12" s="4">
@@ -18126,7 +18370,7 @@
         <v>158.82599999999999</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>5.4378871035665739</v>
       </c>
       <c r="P12" s="4">
@@ -18144,7 +18388,7 @@
         <v>2.4108200000000002</v>
       </c>
       <c r="T12" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>3.8296831339980848</v>
       </c>
       <c r="U12" s="4">
@@ -18154,7 +18398,7 @@
         <v>158.74799999999999</v>
       </c>
       <c r="W12" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>5.4872952392145207</v>
       </c>
       <c r="X12" s="4">
@@ -18187,7 +18431,7 @@
         <v>4.2176400000000003</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3.3867105632954595</v>
       </c>
       <c r="E13" s="4">
@@ -18197,7 +18441,7 @@
         <v>220.959</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4.7581711450585509</v>
       </c>
       <c r="H13" s="4">
@@ -18215,7 +18459,7 @@
         <v>3.0288499999999998</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>2.5547842369850535</v>
       </c>
       <c r="M13" s="4">
@@ -18225,7 +18469,7 @@
         <v>222.268</v>
       </c>
       <c r="O13" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>5.4418764077955144</v>
       </c>
       <c r="P13" s="4">
@@ -18243,7 +18487,7 @@
         <v>3.31413</v>
       </c>
       <c r="T13" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>3.4028141421733213</v>
       </c>
       <c r="U13" s="4">
@@ -18253,7 +18497,7 @@
         <v>222.172</v>
       </c>
       <c r="W13" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>5.4060130617170996</v>
       </c>
       <c r="X13" s="4">
@@ -18277,12 +18521,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:I2"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="R1:Y1"/>
@@ -18291,8 +18529,15 @@
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:T2"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>